--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F1E7B9-D988-4B4D-8FB0-437FEC3AB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{012957D2-1B67-D245-8F1B-BC17252E38B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="167" formatCode="[$-809]dd\ mmmm\ yyyy\,\ dddd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -190,6 +190,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,7 +261,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -303,6 +310,21 @@
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Date" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -312,7 +334,82 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="159">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4177,10 +4274,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="155"/>
-      <tableStyleElement type="headerRow" dxfId="154"/>
-      <tableStyleElement type="totalRow" dxfId="153"/>
-      <tableStyleElement type="firstRowStripe" dxfId="152"/>
+      <tableStyleElement type="wholeTable" dxfId="158"/>
+      <tableStyleElement type="headerRow" dxfId="157"/>
+      <tableStyleElement type="totalRow" dxfId="156"/>
+      <tableStyleElement type="firstRowStripe" dxfId="155"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4207,10 +4304,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="153" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="151" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4229,10 +4326,10 @@
     <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="117" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="115" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4251,10 +4348,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="113" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="111" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4273,10 +4370,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="109" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="107" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4295,10 +4392,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="105" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="104"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="103" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4317,10 +4414,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="101" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="99" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4339,10 +4436,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="97" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="95" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4361,10 +4458,10 @@
     <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="88" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="93" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="91" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4383,10 +4480,10 @@
     <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="86" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="84" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="89" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="87" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4405,10 +4502,10 @@
     <tableColumn id="2" xr3:uid="{C94180EE-1407-4985-8FC4-31B24FD20334}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C6273117-9D1B-4E78-A8BD-B9AFC0FEA4E0}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{28390446-140E-4C34-B6AE-CB73B4D47E90}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="82" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="80" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="85" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="83" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4427,10 +4524,10 @@
     <tableColumn id="2" xr3:uid="{DF5403CA-E344-4631-B2FA-F0E9C07A0B3B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0EB7220C-7400-44F1-9799-008E8292B142}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{55720B1D-3AF4-4697-ABB8-12D14E619F50}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="78" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="76" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="81" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="79" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4449,10 +4546,10 @@
     <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="149" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="147" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4471,10 +4568,10 @@
     <tableColumn id="2" xr3:uid="{82E27544-CFE2-4FCB-929E-F38F8E8BCF72}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BFD43BAD-D695-4D65-8BF4-7FE074F6FAC6}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{386AB347-591A-4CC2-BE5A-89A3C4CE8B1D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="74" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="72" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="77" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="75" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4493,10 +4590,10 @@
     <tableColumn id="2" xr3:uid="{10F2AFDE-A8B8-4625-BAA7-CB80BAB19A74}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{7DECF3E4-30A3-41C2-9278-3705B2CF40DB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A5C5B894-258A-4E94-BB90-F0A974DB7A6C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="70" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="68" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="73" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="71" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4515,10 +4612,10 @@
     <tableColumn id="2" xr3:uid="{CE59DEA0-9236-4D4E-BE63-600CB1F2627F}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DF15F544-5901-4042-ACFC-62AA35048C59}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AA60B96D-C403-41BC-8BF3-726171B925D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="66" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="64" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="69" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="67" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4537,10 +4634,10 @@
     <tableColumn id="2" xr3:uid="{F7A4435C-F5DA-43E5-96E8-2666A7DE6C5D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{24037A76-A296-4FCD-B87D-C98A1655B019}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{DA68FFB9-CDF9-4FA8-9E7F-AC89FD09986A}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="62" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="60" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="65" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="63" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4559,10 +4656,10 @@
     <tableColumn id="2" xr3:uid="{2B89BE19-628C-43B9-9A4F-FD8692426C08}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{247E3465-550A-4E14-84D4-EA3481167E5A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{01C84747-0BDD-4DEF-AC61-87B11910F555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="58" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="56" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="61" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="59" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4581,10 +4678,10 @@
     <tableColumn id="2" xr3:uid="{7827D7BB-C78D-453E-A7F5-5EDDDECC7B77}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{34C52336-5EB3-4B4A-962F-0ABEECC6F20B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{385B235D-CDDC-4630-A31C-93CE09396031}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="54" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="52" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="57" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="55" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4603,10 +4700,10 @@
     <tableColumn id="2" xr3:uid="{CF15D9C0-1B5E-4D51-8CFD-9C9811ADAAB3}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{D775262F-5CAC-4E3B-B2A9-A86E78D2B760}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{77BECF23-AAE1-4FDE-B07B-1B5A963BF75D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="50" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="48" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="53" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="51" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4625,10 +4722,10 @@
     <tableColumn id="2" xr3:uid="{49FE5D61-7D29-4313-898A-830774DBD47A}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90EA046A-3464-4813-A515-441DB628E5D4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F68C3E9-22B1-412D-8561-CDB82609A974}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="46" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="44" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="49" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="47" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4647,10 +4744,10 @@
     <tableColumn id="2" xr3:uid="{03308F6F-7210-41F4-9A07-5979E98F17A9}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A6C76DF6-FD7A-4B5B-882F-1CB21320DF76}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{56992E42-B37C-4386-ADAA-6BFDC7965FFE}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="42" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="40" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="45" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="43" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4669,10 +4766,10 @@
     <tableColumn id="2" xr3:uid="{31480843-9B73-4338-93C3-7BD9399442EA}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A90BA791-6066-47FD-9350-3E02120E2D64}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C66952DF-A7AB-4652-9624-12AD4334047E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="38" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="36" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="41" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="39" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4691,10 +4788,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="143" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4713,10 +4810,10 @@
     <tableColumn id="2" xr3:uid="{54FD0529-ADCD-4B53-B89F-E86041948760}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90F149A0-726C-46FC-84B2-9F8DEBCD7A8A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A4E2FD44-3916-4E9E-8FA7-0FFE817BC883}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="34" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="32" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="37" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="35" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4735,10 +4832,10 @@
     <tableColumn id="2" xr3:uid="{EEA6CB8E-095C-4E58-9685-A72D229B6858}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{6DC39266-36A3-4946-8DCE-8B47BB9B4183}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A76FAE03-CD47-4F58-BAAA-E0B399383AAF}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="30" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="28" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="33" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="31" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4757,10 +4854,10 @@
     <tableColumn id="2" xr3:uid="{C0E329BF-1DCB-4D86-A33C-365B440B70E7}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{003F982F-BD88-4265-93AF-64094B13BDFB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{F89F2619-1757-4DDE-AFC6-B7187DA84CBB}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="26" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="24" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="29" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="27" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4779,10 +4876,10 @@
     <tableColumn id="2" xr3:uid="{64619660-65D6-4C45-BC25-67A7E10F3358}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EE17890D-92A4-4A8E-AF68-AD5B0E4DE02A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{B0DCC0DC-F3ED-48D9-8EBD-678B062883D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="22" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="20" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="25" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="23" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4801,10 +4898,10 @@
     <tableColumn id="2" xr3:uid="{443189F4-32D8-468C-9055-BDC7AD9CD990}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EBCEC7EE-23ED-4FAF-8B83-46D11C025580}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{E3B2AFF1-955C-47F4-B38F-D11790DB9CB7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="18" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="16" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="21" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="19" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4823,10 +4920,10 @@
     <tableColumn id="2" xr3:uid="{4D3D2ADB-B410-4BB3-92F0-5796EF387FD6}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BBB04EDB-D05B-42A2-BA84-AB8CFFF17C8C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{0B6B181D-59AF-48AE-B2F7-9B8848D9B577}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="14" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="12" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="17" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="15" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4845,10 +4942,10 @@
     <tableColumn id="2" xr3:uid="{CD5272FA-F49A-4BE8-948F-8EF3E3E7AE75}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{ECD03D01-EDB4-47B6-B1C9-690C5BC6DBEA}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{4AA58E18-12DB-4F38-8402-929EE81E6FBD}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="10" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="8" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="13" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="11" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4867,10 +4964,10 @@
     <tableColumn id="2" xr3:uid="{A2088134-3A7C-4DE9-B0F3-AA7574753BDE}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9521E4C5-7D16-40BD-8736-5774F4A03DE5}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C16241CE-FCD4-4B92-8C75-1E60871988FC}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="6" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="4" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="9" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="7" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4889,10 +4986,10 @@
     <tableColumn id="2" xr3:uid="{6123AA27-D3FE-4F54-B9D1-CC55C3AED696}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{3319C129-20F6-4D73-B7CB-5325839EC3B4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{BB0ADEA4-48EE-42C3-83CE-C03FE1EE6FA2}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="2" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="0" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="5" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="3" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4911,10 +5008,10 @@
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BA11EC77-4355-4978-BE05-46814D60DA77}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="138" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="136" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="141" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="139" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4933,10 +5030,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="134" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="133"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="132" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4953,12 +5050,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="2" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="130" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="128" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="133" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="131" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4975,12 +5072,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="0" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="129" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="127" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4997,12 +5094,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="1" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="125" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="123" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5021,10 +5118,10 @@
     <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="121" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="119" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5036,7 +5133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5362,8 +5459,8 @@
   </sheetPr>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5543,7 +5640,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="4"/>
@@ -5553,7 +5650,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="4"/>
@@ -5563,7 +5660,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="11"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="4"/>
@@ -5575,7 +5672,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="4"/>
@@ -5585,7 +5682,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="4"/>
@@ -5595,7 +5692,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="17"/>
       <c r="W6" s="11"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="4"/>
@@ -5607,7 +5704,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="4"/>
@@ -5617,7 +5714,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="4"/>
@@ -5627,7 +5724,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="17"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="4"/>
@@ -5639,7 +5736,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="4"/>
@@ -5649,7 +5746,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="4"/>
@@ -5659,7 +5756,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="4"/>
@@ -5671,7 +5768,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="4"/>
@@ -5681,7 +5778,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="4"/>
@@ -5691,7 +5788,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="18"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="4"/>
@@ -5703,7 +5800,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="4"/>
@@ -5713,7 +5810,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="4"/>
@@ -5723,7 +5820,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="4"/>
@@ -5735,7 +5832,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="4"/>
@@ -5745,7 +5842,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="4"/>
@@ -5755,7 +5852,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="18"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="4"/>
@@ -5767,7 +5864,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
       <c r="G12" s="4"/>
@@ -5777,7 +5874,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="4"/>
@@ -5787,7 +5884,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="4"/>
@@ -5799,7 +5896,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
       <c r="G13" s="4"/>
@@ -5809,7 +5906,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
       <c r="P13" s="4"/>
@@ -5819,7 +5916,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="4"/>
@@ -5831,7 +5928,7 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
@@ -5841,7 +5938,7 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
       <c r="P14" s="4"/>
@@ -5851,7 +5948,7 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="4"/>
@@ -5863,7 +5960,7 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="4"/>
@@ -5873,7 +5970,7 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
       <c r="P15" s="4"/>
@@ -5883,7 +5980,7 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="4"/>
@@ -5961,8 +6058,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5:AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6358,7 +6455,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="4"/>
@@ -6368,7 +6465,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
@@ -6378,7 +6475,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="18"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
       <c r="AA5" s="5" t="s">
@@ -6387,7 +6484,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="4"/>
+      <c r="AE5" s="17"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
       <c r="AJ5" s="5" t="s">
@@ -6396,7 +6493,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="4"/>
+      <c r="AN5" s="18"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
       <c r="AS5" s="5" t="s">
@@ -6425,7 +6522,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="4"/>
@@ -6435,7 +6532,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
@@ -6445,7 +6542,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="18"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
       <c r="AA6" s="5" t="s">
@@ -6454,7 +6551,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="17"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
       <c r="AJ6" s="5" t="s">
@@ -6463,7 +6560,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AN6" s="4"/>
+      <c r="AN6" s="18"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
       <c r="AS6" s="5" t="s">
@@ -6492,7 +6589,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
       <c r="G7" s="4"/>
@@ -6502,7 +6599,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
@@ -6512,7 +6609,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="18"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
       <c r="AA7" s="5" t="s">
@@ -6521,7 +6618,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="4"/>
+      <c r="AE7" s="17"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
       <c r="AJ7" s="5" t="s">
@@ -6530,7 +6627,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN7" s="4"/>
+      <c r="AN7" s="18"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
       <c r="AS7" s="5" t="s">
@@ -6559,7 +6656,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="4"/>
@@ -6569,7 +6666,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
@@ -6579,7 +6676,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="18"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
       <c r="AA8" s="5" t="s">
@@ -6588,7 +6685,7 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="4"/>
+      <c r="AE8" s="17"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
       <c r="AJ8" s="5" t="s">
@@ -6597,7 +6694,7 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="4"/>
+      <c r="AN8" s="18"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
       <c r="AS8" s="5" t="s">
@@ -6626,7 +6723,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="4"/>
@@ -6636,7 +6733,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
@@ -6646,7 +6743,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="17"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
       <c r="AA9" s="10" t="s">
@@ -6655,7 +6752,7 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="4"/>
+      <c r="AE9" s="18"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
       <c r="AJ9" s="10" t="s">
@@ -6664,7 +6761,7 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="4"/>
+      <c r="AN9" s="17"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
       <c r="AS9" s="10" t="s">
@@ -6693,7 +6790,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="4"/>
@@ -6703,7 +6800,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
@@ -6713,7 +6810,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="17"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
       <c r="AA10" s="10" t="s">
@@ -6722,7 +6819,7 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="4"/>
+      <c r="AE10" s="18"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
       <c r="AJ10" s="10" t="s">
@@ -6731,7 +6828,7 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="4"/>
+      <c r="AN10" s="17"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
       <c r="AS10" s="10" t="s">
@@ -6760,7 +6857,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
@@ -6770,7 +6867,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
@@ -6780,7 +6877,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="16"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
       <c r="AA11" s="10" t="s">
@@ -6789,7 +6886,7 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="4"/>
+      <c r="AE11" s="18"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
       <c r="AJ11" s="10" t="s">
@@ -6798,7 +6895,7 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AN11" s="4"/>
+      <c r="AN11" s="16"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
       <c r="AS11" s="10" t="s">
@@ -6827,7 +6924,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="4"/>
@@ -6837,7 +6934,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -6847,7 +6944,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="18"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
       <c r="AA12" s="10" t="s">
@@ -6856,7 +6953,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="4"/>
+      <c r="AE12" s="18"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
       <c r="AJ12" s="10" t="s">
@@ -6865,7 +6962,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AN12" s="4"/>
+      <c r="AN12" s="18"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
       <c r="AS12" s="10" t="s">
@@ -6894,7 +6991,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="4"/>
@@ -6904,7 +7001,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -6914,7 +7011,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="18"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
       <c r="AA13" s="10" t="s">
@@ -6923,7 +7020,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE13" s="4"/>
+      <c r="AE13" s="16"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
       <c r="AJ13" s="10" t="s">
@@ -6932,7 +7029,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AN13" s="4"/>
+      <c r="AN13" s="18"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
       <c r="AS13" s="10" t="s">
@@ -6961,7 +7058,7 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
@@ -6971,7 +7068,7 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="4"/>
@@ -6981,7 +7078,7 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="16"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="4"/>
       <c r="AA14" s="10" t="s">
@@ -6990,7 +7087,7 @@
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AE14" s="4"/>
+      <c r="AE14" s="16"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="4"/>
       <c r="AJ14" s="10" t="s">
@@ -6999,7 +7096,7 @@
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AN14" s="4"/>
+      <c r="AN14" s="16"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="4"/>
       <c r="AS14" s="10" t="s">
@@ -7028,7 +7125,7 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="4"/>
@@ -7038,7 +7135,7 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="4"/>
@@ -7048,7 +7145,7 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="16"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="4"/>
       <c r="AA15" s="10" t="s">
@@ -7057,7 +7154,7 @@
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE15" s="4"/>
+      <c r="AE15" s="16"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="4"/>
       <c r="AJ15" s="10" t="s">
@@ -7066,7 +7163,7 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN15" s="4"/>
+      <c r="AN15" s="16"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="4"/>
       <c r="AS15" s="10" t="s">
@@ -7153,12 +7250,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -7167,6 +7258,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
@@ -8374,12 +8471,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -8388,6 +8479,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
@@ -9595,12 +9692,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -9609,6 +9700,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{C256AD20-86C3-43AF-A157-F6F748ADAD93}"/>
@@ -10816,12 +10913,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -10830,6 +10921,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{D3B88787-9666-4829-AF1B-AFD0BDE5ED0F}"/>
@@ -12037,12 +12134,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -12051,6 +12142,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{5FAFC48E-2820-4639-899D-6240921BAB5B}"/>
@@ -12081,14 +12178,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100577685AB90FCC4498475D6452D048D90" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6fe2089005366a98f0abf53e193a6fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="544010ab-5998-4e47-9e28-04d882867513" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b810a13fcf3b4b751b6351b05549f6f" ns3:_="">
     <xsd:import namespace="544010ab-5998-4e47-9e28-04d882867513"/>
@@ -12278,6 +12367,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12288,22 +12385,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB62CB31-3897-439C-929D-5AFDFE1F0635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12321,6 +12402,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
   <ds:schemaRefs>

--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012957D2-1B67-D245-8F1B-BC17252E38B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F793D9-A4BF-074E-BE35-CD5BC06CC0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="3900" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -304,12 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -325,6 +319,12 @@
     <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Date" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -334,7 +334,82 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -355,6 +430,3031 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -378,6 +3478,106 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
@@ -403,6 +3603,106 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
@@ -503,3412 +3803,120 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4274,10 +4282,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="158"/>
-      <tableStyleElement type="headerRow" dxfId="157"/>
-      <tableStyleElement type="totalRow" dxfId="156"/>
-      <tableStyleElement type="firstRowStripe" dxfId="155"/>
+      <tableStyleElement type="wholeTable" dxfId="159"/>
+      <tableStyleElement type="headerRow" dxfId="158"/>
+      <tableStyleElement type="totalRow" dxfId="157"/>
+      <tableStyleElement type="firstRowStripe" dxfId="156"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4304,10 +4312,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="153" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="151" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4326,10 +4334,10 @@
     <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="117" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="115" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4348,10 +4356,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="113" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="111" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4370,10 +4378,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="109" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="107" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4392,10 +4400,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="105" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="104"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="103" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4414,10 +4422,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="101" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="99" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4436,10 +4444,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="97" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="95" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4458,10 +4466,10 @@
     <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="93" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="91" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="88" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4480,10 +4488,10 @@
     <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="89" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="87" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="86" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="84" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4502,10 +4510,10 @@
     <tableColumn id="2" xr3:uid="{C94180EE-1407-4985-8FC4-31B24FD20334}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C6273117-9D1B-4E78-A8BD-B9AFC0FEA4E0}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{28390446-140E-4C34-B6AE-CB73B4D47E90}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="85" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="83" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="82" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="80" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4524,10 +4532,10 @@
     <tableColumn id="2" xr3:uid="{DF5403CA-E344-4631-B2FA-F0E9C07A0B3B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0EB7220C-7400-44F1-9799-008E8292B142}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{55720B1D-3AF4-4697-ABB8-12D14E619F50}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="81" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="79" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="78" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="76" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4546,10 +4554,10 @@
     <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="149" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="147" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4568,10 +4576,10 @@
     <tableColumn id="2" xr3:uid="{82E27544-CFE2-4FCB-929E-F38F8E8BCF72}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BFD43BAD-D695-4D65-8BF4-7FE074F6FAC6}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{386AB347-591A-4CC2-BE5A-89A3C4CE8B1D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="77" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="75" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="74" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="72" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4590,10 +4598,10 @@
     <tableColumn id="2" xr3:uid="{10F2AFDE-A8B8-4625-BAA7-CB80BAB19A74}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{7DECF3E4-30A3-41C2-9278-3705B2CF40DB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A5C5B894-258A-4E94-BB90-F0A974DB7A6C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="73" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="71" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="70" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="68" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4612,10 +4620,10 @@
     <tableColumn id="2" xr3:uid="{CE59DEA0-9236-4D4E-BE63-600CB1F2627F}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DF15F544-5901-4042-ACFC-62AA35048C59}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AA60B96D-C403-41BC-8BF3-726171B925D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="69" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="67" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="66" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="64" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4634,10 +4642,10 @@
     <tableColumn id="2" xr3:uid="{F7A4435C-F5DA-43E5-96E8-2666A7DE6C5D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{24037A76-A296-4FCD-B87D-C98A1655B019}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{DA68FFB9-CDF9-4FA8-9E7F-AC89FD09986A}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="65" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="63" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="62" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="60" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4656,10 +4664,10 @@
     <tableColumn id="2" xr3:uid="{2B89BE19-628C-43B9-9A4F-FD8692426C08}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{247E3465-550A-4E14-84D4-EA3481167E5A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{01C84747-0BDD-4DEF-AC61-87B11910F555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="61" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="59" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="58" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="56" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4678,10 +4686,10 @@
     <tableColumn id="2" xr3:uid="{7827D7BB-C78D-453E-A7F5-5EDDDECC7B77}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{34C52336-5EB3-4B4A-962F-0ABEECC6F20B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{385B235D-CDDC-4630-A31C-93CE09396031}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="57" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="55" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="54" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="52" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4700,10 +4708,10 @@
     <tableColumn id="2" xr3:uid="{CF15D9C0-1B5E-4D51-8CFD-9C9811ADAAB3}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{D775262F-5CAC-4E3B-B2A9-A86E78D2B760}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{77BECF23-AAE1-4FDE-B07B-1B5A963BF75D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="53" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="51" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="50" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="48" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4722,10 +4730,10 @@
     <tableColumn id="2" xr3:uid="{49FE5D61-7D29-4313-898A-830774DBD47A}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90EA046A-3464-4813-A515-441DB628E5D4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F68C3E9-22B1-412D-8561-CDB82609A974}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="49" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="47" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="46" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="44" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4744,10 +4752,10 @@
     <tableColumn id="2" xr3:uid="{03308F6F-7210-41F4-9A07-5979E98F17A9}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A6C76DF6-FD7A-4B5B-882F-1CB21320DF76}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{56992E42-B37C-4386-ADAA-6BFDC7965FFE}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="45" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="43" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="42" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="40" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4766,10 +4774,10 @@
     <tableColumn id="2" xr3:uid="{31480843-9B73-4338-93C3-7BD9399442EA}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A90BA791-6066-47FD-9350-3E02120E2D64}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C66952DF-A7AB-4652-9624-12AD4334047E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="41" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="39" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="38" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="36" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4788,10 +4796,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="144"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="143" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4810,10 +4818,10 @@
     <tableColumn id="2" xr3:uid="{54FD0529-ADCD-4B53-B89F-E86041948760}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90F149A0-726C-46FC-84B2-9F8DEBCD7A8A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A4E2FD44-3916-4E9E-8FA7-0FFE817BC883}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="37" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="35" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="34" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="32" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4832,10 +4840,10 @@
     <tableColumn id="2" xr3:uid="{EEA6CB8E-095C-4E58-9685-A72D229B6858}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{6DC39266-36A3-4946-8DCE-8B47BB9B4183}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A76FAE03-CD47-4F58-BAAA-E0B399383AAF}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="33" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="31" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="30" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="28" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4854,10 +4862,10 @@
     <tableColumn id="2" xr3:uid="{C0E329BF-1DCB-4D86-A33C-365B440B70E7}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{003F982F-BD88-4265-93AF-64094B13BDFB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{F89F2619-1757-4DDE-AFC6-B7187DA84CBB}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="29" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="27" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="26" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="24" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4876,10 +4884,10 @@
     <tableColumn id="2" xr3:uid="{64619660-65D6-4C45-BC25-67A7E10F3358}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EE17890D-92A4-4A8E-AF68-AD5B0E4DE02A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{B0DCC0DC-F3ED-48D9-8EBD-678B062883D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="25" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="23" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="22" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="20" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4898,10 +4906,10 @@
     <tableColumn id="2" xr3:uid="{443189F4-32D8-468C-9055-BDC7AD9CD990}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EBCEC7EE-23ED-4FAF-8B83-46D11C025580}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{E3B2AFF1-955C-47F4-B38F-D11790DB9CB7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="21" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="19" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="18" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="16" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4920,10 +4928,10 @@
     <tableColumn id="2" xr3:uid="{4D3D2ADB-B410-4BB3-92F0-5796EF387FD6}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BBB04EDB-D05B-42A2-BA84-AB8CFFF17C8C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{0B6B181D-59AF-48AE-B2F7-9B8848D9B577}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="17" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="15" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="14" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="12" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4942,10 +4950,10 @@
     <tableColumn id="2" xr3:uid="{CD5272FA-F49A-4BE8-948F-8EF3E3E7AE75}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{ECD03D01-EDB4-47B6-B1C9-690C5BC6DBEA}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{4AA58E18-12DB-4F38-8402-929EE81E6FBD}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="13" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="11" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="10" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="8" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4964,10 +4972,10 @@
     <tableColumn id="2" xr3:uid="{A2088134-3A7C-4DE9-B0F3-AA7574753BDE}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9521E4C5-7D16-40BD-8736-5774F4A03DE5}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C16241CE-FCD4-4B92-8C75-1E60871988FC}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="9" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="7" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="6" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="4" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4986,10 +4994,10 @@
     <tableColumn id="2" xr3:uid="{6123AA27-D3FE-4F54-B9D1-CC55C3AED696}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{3319C129-20F6-4D73-B7CB-5325839EC3B4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{BB0ADEA4-48EE-42C3-83CE-C03FE1EE6FA2}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="5" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="3" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="2" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="0" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5002,7 +5010,11 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A02BAFB-504F-431B-A149-F6FB78B884AA}" name="Appointments5" displayName="Appointments5" ref="B4:I15" totalsRowShown="0">
-  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <colorFilter dxfId="143"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5F0995BE-F391-4B57-87DF-65C548CB18D5}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
@@ -5050,12 +5062,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="2" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="133" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="131" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5072,12 +5084,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="0" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="129" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="127" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5094,12 +5106,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="1" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="124" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="125" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="124"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="123" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5118,10 +5130,10 @@
     <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="121" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="119" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5133,7 +5145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5459,8 +5471,8 @@
   </sheetPr>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5525,40 +5537,40 @@
     </row>
     <row r="2" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44946</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44947</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44948</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
@@ -5640,30 +5652,30 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="17"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="6"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="11"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="6"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
@@ -5672,30 +5684,30 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="17"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="6"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="17"/>
+      <c r="V6" s="15"/>
       <c r="W6" s="11"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="6"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
       </c>
@@ -5704,30 +5716,30 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="6"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="17"/>
+      <c r="V7" s="15"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="6"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
       </c>
@@ -5736,30 +5748,30 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="11"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="6"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="17"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="6"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
@@ -5768,30 +5780,30 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="11"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="18"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="12"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5800,30 +5812,30 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="11"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="4"/>
+      <c r="Y10" s="12"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
@@ -5832,30 +5844,30 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="11"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="18"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="12"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
@@ -5864,30 +5876,30 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="11"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="20"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="12"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="17"/>
+      <c r="V12" s="15"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="12"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
       </c>
@@ -5896,30 +5908,30 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="11"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="12"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="17"/>
+      <c r="V13" s="15"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="12"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
       </c>
@@ -5928,30 +5940,30 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="17"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="12"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="17"/>
+      <c r="V14" s="15"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="12"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
       </c>
@@ -5960,30 +5972,30 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="17"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="12"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="17"/>
+      <c r="V15" s="15"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="12"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
       </c>
@@ -6058,8 +6070,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5:AE15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6196,88 +6208,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44949</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44950</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44951</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44952</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44953</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44954</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44955</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -6455,47 +6467,47 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="12"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="17"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="12"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="18"/>
+      <c r="V5" s="16"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="17"/>
+      <c r="AE5" s="15"/>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="12"/>
       <c r="AJ5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="18"/>
+      <c r="AN5" s="16"/>
       <c r="AP5" s="11"/>
-      <c r="AQ5" s="4"/>
+      <c r="AQ5" s="16"/>
       <c r="AS5" s="5" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +6516,7 @@
       </c>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="6"/>
       <c r="BB5" s="5" t="s">
         <v>10</v>
       </c>
@@ -6513,7 +6525,7 @@
       </c>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
-      <c r="BI5" s="4"/>
+      <c r="BI5" s="6"/>
       <c r="BK5" s="5" t="s">
         <v>10</v>
       </c>
@@ -6522,47 +6534,47 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="12"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="17"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="12"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="18"/>
+      <c r="V6" s="16"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="15"/>
       <c r="AG6" s="12"/>
-      <c r="AH6" s="4"/>
+      <c r="AH6" s="12"/>
       <c r="AJ6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AN6" s="18"/>
+      <c r="AN6" s="16"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="4"/>
+      <c r="AQ6" s="16"/>
       <c r="AS6" s="5" t="s">
         <v>11</v>
       </c>
@@ -6571,7 +6583,7 @@
       </c>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
+      <c r="AZ6" s="6"/>
       <c r="BB6" s="5" t="s">
         <v>11</v>
       </c>
@@ -6580,7 +6592,7 @@
       </c>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
-      <c r="BI6" s="4"/>
+      <c r="BI6" s="6"/>
       <c r="BK6" s="5" t="s">
         <v>11</v>
       </c>
@@ -6589,47 +6601,47 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="12"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="12"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="18"/>
+      <c r="V7" s="16"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="17"/>
+      <c r="AE7" s="15"/>
       <c r="AG7" s="12"/>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="12"/>
       <c r="AJ7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN7" s="18"/>
+      <c r="AN7" s="16"/>
       <c r="AP7" s="11"/>
-      <c r="AQ7" s="4"/>
+      <c r="AQ7" s="16"/>
       <c r="AS7" s="5" t="s">
         <v>12</v>
       </c>
@@ -6638,7 +6650,7 @@
       </c>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
-      <c r="AZ7" s="4"/>
+      <c r="AZ7" s="6"/>
       <c r="BB7" s="5" t="s">
         <v>12</v>
       </c>
@@ -6647,7 +6659,7 @@
       </c>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
-      <c r="BI7" s="4"/>
+      <c r="BI7" s="6"/>
       <c r="BK7" s="5" t="s">
         <v>12</v>
       </c>
@@ -6656,47 +6668,47 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="18"/>
+      <c r="V8" s="16"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="11"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="17"/>
+      <c r="AE8" s="15"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="4"/>
+      <c r="AH8" s="12"/>
       <c r="AJ8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="18"/>
+      <c r="AN8" s="16"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="4"/>
+      <c r="AQ8" s="16"/>
       <c r="AS8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6705,7 +6717,7 @@
       </c>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="6"/>
       <c r="BB8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6714,7 +6726,7 @@
       </c>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
-      <c r="BI8" s="4"/>
+      <c r="BI8" s="6"/>
       <c r="BK8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6723,47 +6735,47 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="17"/>
+      <c r="V9" s="15"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="11"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="18"/>
+      <c r="AE9" s="16"/>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="4"/>
+      <c r="AH9" s="12"/>
       <c r="AJ9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="17"/>
+      <c r="AN9" s="15"/>
       <c r="AP9" s="11"/>
-      <c r="AQ9" s="4"/>
+      <c r="AQ9" s="16"/>
       <c r="AS9" s="10" t="s">
         <v>19</v>
       </c>
@@ -6772,7 +6784,7 @@
       </c>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
-      <c r="AZ9" s="4"/>
+      <c r="AZ9" s="12"/>
       <c r="BB9" s="10" t="s">
         <v>19</v>
       </c>
@@ -6781,7 +6793,7 @@
       </c>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
-      <c r="BI9" s="4"/>
+      <c r="BI9" s="12"/>
       <c r="BK9" s="10" t="s">
         <v>19</v>
       </c>
@@ -6790,47 +6802,47 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="17"/>
+      <c r="V10" s="15"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="4"/>
+      <c r="Y10" s="16"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="18"/>
+      <c r="AE10" s="16"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="4"/>
+      <c r="AH10" s="12"/>
       <c r="AJ10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="17"/>
+      <c r="AN10" s="15"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="4"/>
+      <c r="AQ10" s="16"/>
       <c r="AS10" s="10" t="s">
         <v>24</v>
       </c>
@@ -6839,7 +6851,7 @@
       </c>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
-      <c r="AZ10" s="4"/>
+      <c r="AZ10" s="12"/>
       <c r="BB10" s="10" t="s">
         <v>24</v>
       </c>
@@ -6848,7 +6860,7 @@
       </c>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
-      <c r="BI10" s="4"/>
+      <c r="BI10" s="12"/>
       <c r="BK10" s="10" t="s">
         <v>24</v>
       </c>
@@ -6857,47 +6869,47 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="16"/>
+      <c r="V11" s="14"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="16"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="18"/>
+      <c r="AE11" s="16"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="4"/>
+      <c r="AH11" s="12"/>
       <c r="AJ11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AN11" s="16"/>
+      <c r="AN11" s="14"/>
       <c r="AP11" s="11"/>
-      <c r="AQ11" s="4"/>
+      <c r="AQ11" s="16"/>
       <c r="AS11" s="10" t="s">
         <v>20</v>
       </c>
@@ -6906,7 +6918,7 @@
       </c>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
-      <c r="AZ11" s="4"/>
+      <c r="AZ11" s="12"/>
       <c r="BB11" s="10" t="s">
         <v>20</v>
       </c>
@@ -6915,7 +6927,7 @@
       </c>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
-      <c r="BI11" s="4"/>
+      <c r="BI11" s="12"/>
       <c r="BK11" s="10" t="s">
         <v>20</v>
       </c>
@@ -6924,47 +6936,47 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="12"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="12"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="18"/>
+      <c r="V12" s="16"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="16"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="18"/>
+      <c r="AE12" s="16"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="4"/>
+      <c r="AH12" s="12"/>
       <c r="AJ12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AN12" s="18"/>
+      <c r="AN12" s="16"/>
       <c r="AP12" s="11"/>
-      <c r="AQ12" s="4"/>
+      <c r="AQ12" s="14"/>
       <c r="AS12" s="10" t="s">
         <v>25</v>
       </c>
@@ -6973,7 +6985,7 @@
       </c>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
-      <c r="AZ12" s="4"/>
+      <c r="AZ12" s="12"/>
       <c r="BB12" s="10" t="s">
         <v>25</v>
       </c>
@@ -6982,7 +6994,7 @@
       </c>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
-      <c r="BI12" s="4"/>
+      <c r="BI12" s="12"/>
       <c r="BK12" s="10" t="s">
         <v>25</v>
       </c>
@@ -6991,47 +7003,47 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="12"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="16"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="12"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="18"/>
+      <c r="V13" s="16"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="16"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE13" s="16"/>
+      <c r="AE13" s="14"/>
       <c r="AG13" s="12"/>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="12"/>
       <c r="AJ13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AN13" s="18"/>
+      <c r="AN13" s="16"/>
       <c r="AP13" s="11"/>
-      <c r="AQ13" s="4"/>
+      <c r="AQ13" s="14"/>
       <c r="AS13" s="10" t="s">
         <v>21</v>
       </c>
@@ -7040,7 +7052,7 @@
       </c>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
-      <c r="AZ13" s="4"/>
+      <c r="AZ13" s="12"/>
       <c r="BB13" s="10" t="s">
         <v>21</v>
       </c>
@@ -7049,7 +7061,7 @@
       </c>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
-      <c r="BI13" s="4"/>
+      <c r="BI13" s="12"/>
       <c r="BK13" s="10" t="s">
         <v>21</v>
       </c>
@@ -7058,47 +7070,47 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="12"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="12"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="14"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="16"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AE14" s="16"/>
+      <c r="AE14" s="14"/>
       <c r="AG14" s="12"/>
-      <c r="AH14" s="4"/>
+      <c r="AH14" s="12"/>
       <c r="AJ14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AN14" s="16"/>
+      <c r="AN14" s="14"/>
       <c r="AP14" s="12"/>
-      <c r="AQ14" s="4"/>
+      <c r="AQ14" s="14"/>
       <c r="AS14" s="10" t="s">
         <v>22</v>
       </c>
@@ -7107,7 +7119,7 @@
       </c>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
-      <c r="AZ14" s="4"/>
+      <c r="AZ14" s="12"/>
       <c r="BB14" s="10" t="s">
         <v>22</v>
       </c>
@@ -7116,7 +7128,7 @@
       </c>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
-      <c r="BI14" s="4"/>
+      <c r="BI14" s="12"/>
       <c r="BK14" s="10" t="s">
         <v>22</v>
       </c>
@@ -7125,47 +7137,47 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="12"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="12"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="14"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="16"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE15" s="16"/>
+      <c r="AE15" s="14"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="4"/>
+      <c r="AH15" s="12"/>
       <c r="AJ15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN15" s="16"/>
+      <c r="AN15" s="14"/>
       <c r="AP15" s="12"/>
-      <c r="AQ15" s="4"/>
+      <c r="AQ15" s="14"/>
       <c r="AS15" s="10" t="s">
         <v>23</v>
       </c>
@@ -7174,7 +7186,7 @@
       </c>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
-      <c r="AZ15" s="4"/>
+      <c r="AZ15" s="12"/>
       <c r="BB15" s="10" t="s">
         <v>23</v>
       </c>
@@ -7183,7 +7195,7 @@
       </c>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
-      <c r="BI15" s="4"/>
+      <c r="BI15" s="12"/>
       <c r="BK15" s="10" t="s">
         <v>23</v>
       </c>
@@ -7302,7 +7314,7 @@
   <dimension ref="B1:BK17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7439,88 +7451,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44956</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44957</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44958</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44959</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44960</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44961</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44962</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -7700,7 +7712,6 @@
       </c>
       <c r="D5" s="4"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
@@ -7765,7 +7776,6 @@
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
@@ -7830,7 +7840,6 @@
       </c>
       <c r="D7" s="4"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -7895,7 +7904,6 @@
       </c>
       <c r="D8" s="4"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
@@ -7960,7 +7968,6 @@
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
@@ -8025,7 +8032,6 @@
       </c>
       <c r="D10" s="4"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
@@ -8090,7 +8096,6 @@
       </c>
       <c r="D11" s="4"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
@@ -8155,7 +8160,6 @@
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
@@ -8220,7 +8224,6 @@
       </c>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
@@ -8285,7 +8288,6 @@
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
@@ -8350,7 +8352,6 @@
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
@@ -8660,88 +8661,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44963</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44964</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44965</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44966</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44967</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44968</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44969</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -9881,88 +9882,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44970</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44971</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44972</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44973</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44974</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44975</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44976</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -11102,88 +11103,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44977</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44978</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44979</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44980</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44981</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44982</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44983</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>

--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F793D9-A4BF-074E-BE35-CD5BC06CC0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB32CB6-3AB5-FE4E-8089-1E67AEA92E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="3900" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35500" yWindow="3740" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,98 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="165">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4282,10 +4373,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="159"/>
-      <tableStyleElement type="headerRow" dxfId="158"/>
-      <tableStyleElement type="totalRow" dxfId="157"/>
-      <tableStyleElement type="firstRowStripe" dxfId="156"/>
+      <tableStyleElement type="wholeTable" dxfId="164"/>
+      <tableStyleElement type="headerRow" dxfId="163"/>
+      <tableStyleElement type="totalRow" dxfId="162"/>
+      <tableStyleElement type="firstRowStripe" dxfId="161"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4312,10 +4403,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="153"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="159" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="157" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4331,13 +4422,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C5BF689-7D67-4AAE-9936-6BF5F2752D67}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="2" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="119" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="117" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4356,10 +4447,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="115" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="113" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4378,10 +4469,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="111" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="109" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4400,10 +4491,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="107" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="105" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4422,10 +4513,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="103" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="101" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4444,10 +4535,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="99" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="97" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4463,13 +4554,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{756CC06F-004D-48BE-B33B-097FC515D6F9}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="88" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="95" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="93" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4485,13 +4576,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0FF695A-2671-454A-B9AC-3DB129595791}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="86" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="84" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="91" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4510,10 +4601,10 @@
     <tableColumn id="2" xr3:uid="{C94180EE-1407-4985-8FC4-31B24FD20334}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C6273117-9D1B-4E78-A8BD-B9AFC0FEA4E0}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{28390446-140E-4C34-B6AE-CB73B4D47E90}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="82" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="80" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="87" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="85" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4532,10 +4623,10 @@
     <tableColumn id="2" xr3:uid="{DF5403CA-E344-4631-B2FA-F0E9C07A0B3B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0EB7220C-7400-44F1-9799-008E8292B142}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{55720B1D-3AF4-4697-ABB8-12D14E619F50}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="78" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="76" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="83" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="81" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4551,13 +4642,13 @@
   <autoFilter ref="K4:R15" xr:uid="{B7B8F908-8DC3-4258-8031-85AFC0EBB259}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F01FA980-845A-43DE-81ED-9339A1E6EEC8}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris" dataDxfId="4" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="155" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="154"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="153" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4576,10 +4667,10 @@
     <tableColumn id="2" xr3:uid="{82E27544-CFE2-4FCB-929E-F38F8E8BCF72}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BFD43BAD-D695-4D65-8BF4-7FE074F6FAC6}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{386AB347-591A-4CC2-BE5A-89A3C4CE8B1D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="74" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="72" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="79" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="77" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4598,10 +4689,10 @@
     <tableColumn id="2" xr3:uid="{10F2AFDE-A8B8-4625-BAA7-CB80BAB19A74}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{7DECF3E4-30A3-41C2-9278-3705B2CF40DB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A5C5B894-258A-4E94-BB90-F0A974DB7A6C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="70" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="68" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="75" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="73" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4620,10 +4711,10 @@
     <tableColumn id="2" xr3:uid="{CE59DEA0-9236-4D4E-BE63-600CB1F2627F}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DF15F544-5901-4042-ACFC-62AA35048C59}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AA60B96D-C403-41BC-8BF3-726171B925D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="66" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="64" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="71" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="69" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4642,10 +4733,10 @@
     <tableColumn id="2" xr3:uid="{F7A4435C-F5DA-43E5-96E8-2666A7DE6C5D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{24037A76-A296-4FCD-B87D-C98A1655B019}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{DA68FFB9-CDF9-4FA8-9E7F-AC89FD09986A}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="62" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="60" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="67" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="65" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4664,10 +4755,10 @@
     <tableColumn id="2" xr3:uid="{2B89BE19-628C-43B9-9A4F-FD8692426C08}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{247E3465-550A-4E14-84D4-EA3481167E5A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{01C84747-0BDD-4DEF-AC61-87B11910F555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="58" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="56" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="63" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="61" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4686,10 +4777,10 @@
     <tableColumn id="2" xr3:uid="{7827D7BB-C78D-453E-A7F5-5EDDDECC7B77}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{34C52336-5EB3-4B4A-962F-0ABEECC6F20B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{385B235D-CDDC-4630-A31C-93CE09396031}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="54" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="52" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="59" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="57" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4708,10 +4799,10 @@
     <tableColumn id="2" xr3:uid="{CF15D9C0-1B5E-4D51-8CFD-9C9811ADAAB3}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{D775262F-5CAC-4E3B-B2A9-A86E78D2B760}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{77BECF23-AAE1-4FDE-B07B-1B5A963BF75D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="50" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="48" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="55" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="53" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4730,10 +4821,10 @@
     <tableColumn id="2" xr3:uid="{49FE5D61-7D29-4313-898A-830774DBD47A}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90EA046A-3464-4813-A515-441DB628E5D4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F68C3E9-22B1-412D-8561-CDB82609A974}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="46" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="44" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="51" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="49" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4752,10 +4843,10 @@
     <tableColumn id="2" xr3:uid="{03308F6F-7210-41F4-9A07-5979E98F17A9}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A6C76DF6-FD7A-4B5B-882F-1CB21320DF76}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{56992E42-B37C-4386-ADAA-6BFDC7965FFE}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="42" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="40" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="47" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="45" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4774,10 +4865,10 @@
     <tableColumn id="2" xr3:uid="{31480843-9B73-4338-93C3-7BD9399442EA}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A90BA791-6066-47FD-9350-3E02120E2D64}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C66952DF-A7AB-4652-9624-12AD4334047E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="38" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="36" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="43" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="41" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4796,10 +4887,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="151" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="149" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4818,10 +4909,10 @@
     <tableColumn id="2" xr3:uid="{54FD0529-ADCD-4B53-B89F-E86041948760}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90F149A0-726C-46FC-84B2-9F8DEBCD7A8A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A4E2FD44-3916-4E9E-8FA7-0FFE817BC883}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="34" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="32" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="39" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="37" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4840,10 +4931,10 @@
     <tableColumn id="2" xr3:uid="{EEA6CB8E-095C-4E58-9685-A72D229B6858}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{6DC39266-36A3-4946-8DCE-8B47BB9B4183}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A76FAE03-CD47-4F58-BAAA-E0B399383AAF}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="30" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="28" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="35" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="33" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4862,10 +4953,10 @@
     <tableColumn id="2" xr3:uid="{C0E329BF-1DCB-4D86-A33C-365B440B70E7}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{003F982F-BD88-4265-93AF-64094B13BDFB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{F89F2619-1757-4DDE-AFC6-B7187DA84CBB}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="26" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="24" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="31" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="29" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4884,10 +4975,10 @@
     <tableColumn id="2" xr3:uid="{64619660-65D6-4C45-BC25-67A7E10F3358}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EE17890D-92A4-4A8E-AF68-AD5B0E4DE02A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{B0DCC0DC-F3ED-48D9-8EBD-678B062883D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="22" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="20" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="27" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="25" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4906,10 +4997,10 @@
     <tableColumn id="2" xr3:uid="{443189F4-32D8-468C-9055-BDC7AD9CD990}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EBCEC7EE-23ED-4FAF-8B83-46D11C025580}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{E3B2AFF1-955C-47F4-B38F-D11790DB9CB7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="18" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="16" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="23" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="21" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4928,10 +5019,10 @@
     <tableColumn id="2" xr3:uid="{4D3D2ADB-B410-4BB3-92F0-5796EF387FD6}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BBB04EDB-D05B-42A2-BA84-AB8CFFF17C8C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{0B6B181D-59AF-48AE-B2F7-9B8848D9B577}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="14" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="12" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="19" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="17" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4950,10 +5041,10 @@
     <tableColumn id="2" xr3:uid="{CD5272FA-F49A-4BE8-948F-8EF3E3E7AE75}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{ECD03D01-EDB4-47B6-B1C9-690C5BC6DBEA}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{4AA58E18-12DB-4F38-8402-929EE81E6FBD}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="10" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="8" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="15" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="13" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4972,10 +5063,10 @@
     <tableColumn id="2" xr3:uid="{A2088134-3A7C-4DE9-B0F3-AA7574753BDE}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9521E4C5-7D16-40BD-8736-5774F4A03DE5}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C16241CE-FCD4-4B92-8C75-1E60871988FC}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="6" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="4" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="11" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="9" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4994,10 +5085,10 @@
     <tableColumn id="2" xr3:uid="{6123AA27-D3FE-4F54-B9D1-CC55C3AED696}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{3319C129-20F6-4D73-B7CB-5325839EC3B4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{BB0ADEA4-48EE-42C3-83CE-C03FE1EE6FA2}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="2" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="0" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="7" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="5" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5012,7 +5103,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A02BAFB-504F-431B-A149-F6FB78B884AA}" name="Appointments5" displayName="Appointments5" ref="B4:I15" totalsRowShown="0">
   <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="5">
-      <colorFilter dxfId="143"/>
+      <colorFilter dxfId="148"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
@@ -5020,10 +5111,10 @@
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BA11EC77-4355-4978-BE05-46814D60DA77}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="141" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="139" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5042,10 +5133,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5062,12 +5153,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="139" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5084,12 +5175,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5106,12 +5197,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="124" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5127,13 +5218,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C01A3E17-F544-4C12-B883-EFFA13DC4405}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="3" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="123" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="121" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5471,8 +5562,8 @@
   </sheetPr>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5652,6 +5743,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -5662,6 +5754,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="16"/>
       <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
@@ -5684,6 +5777,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -5694,6 +5788,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="16"/>
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -5716,6 +5811,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -5726,6 +5822,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -5748,6 +5845,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -5758,6 +5856,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="16"/>
       <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -5780,6 +5879,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -5790,6 +5890,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="16"/>
       <c r="M9" s="18"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -5812,6 +5913,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -5822,6 +5924,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="17"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -5844,6 +5947,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5854,6 +5958,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -5864,6 +5969,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -5876,6 +5982,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
@@ -5886,6 +5993,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="16"/>
       <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -5896,6 +6004,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="16"/>
       <c r="V12" s="15"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -5908,6 +6017,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
@@ -5918,6 +6028,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="16"/>
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
@@ -5928,6 +6039,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="16"/>
       <c r="V13" s="15"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -5940,6 +6052,7 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -5950,6 +6063,7 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="L14" s="16"/>
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
@@ -5972,6 +6086,7 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -5982,6 +6097,7 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="L15" s="16"/>
       <c r="M15" s="15"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
@@ -6070,8 +6186,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AZ15" sqref="AZ15"/>
+    <sheetView showGridLines="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10:AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6467,6 +6583,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -6477,6 +6594,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -6487,6 +6605,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="16"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
@@ -6496,6 +6615,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="15"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
@@ -6505,6 +6625,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AM5" s="11"/>
       <c r="AN5" s="16"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="16"/>
@@ -6514,6 +6635,7 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="16"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
@@ -6523,6 +6645,7 @@
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="16"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
@@ -6534,6 +6657,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -6544,6 +6668,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="15"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -6554,6 +6679,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="16"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -6563,6 +6689,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="15"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
@@ -6572,6 +6699,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" s="11"/>
       <c r="AN6" s="16"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="16"/>
@@ -6581,6 +6709,7 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="16"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
@@ -6590,6 +6719,7 @@
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="16"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
@@ -6601,6 +6731,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="16"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -6611,6 +6742,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="15"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -6621,6 +6753,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="16"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -6630,6 +6763,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="15"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
@@ -6639,6 +6773,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" s="11"/>
       <c r="AN7" s="16"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="16"/>
@@ -6648,6 +6783,7 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="16"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="6"/>
@@ -6657,6 +6793,7 @@
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="16"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="6"/>
@@ -6668,6 +6805,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -6678,6 +6816,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
@@ -6688,6 +6827,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U8" s="6"/>
       <c r="V8" s="16"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -6697,6 +6837,7 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="6"/>
       <c r="AE8" s="15"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
@@ -6706,6 +6847,7 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="16"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="16"/>
@@ -6715,6 +6857,7 @@
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="16"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="6"/>
@@ -6724,6 +6867,7 @@
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="16"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="6"/>
@@ -6735,6 +6879,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="15"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -6745,6 +6890,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="6"/>
       <c r="M9" s="16"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
@@ -6755,6 +6901,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="U9" s="6"/>
       <c r="V9" s="15"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
@@ -6764,6 +6911,7 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AD9" s="6"/>
       <c r="AE9" s="16"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
@@ -6773,6 +6921,7 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="15"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="16"/>
@@ -6782,6 +6931,7 @@
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="16"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
@@ -6791,6 +6941,7 @@
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="16"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
@@ -6802,6 +6953,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="15"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
@@ -6812,6 +6964,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="16"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
@@ -6822,6 +6975,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="15"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="16"/>
@@ -6831,6 +6985,7 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="16"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
@@ -6840,6 +6995,7 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="15"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="16"/>
@@ -6849,6 +7005,7 @@
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="16"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
@@ -6858,6 +7015,7 @@
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="16"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
@@ -6869,6 +7027,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
@@ -6879,6 +7038,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="16"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
@@ -6889,6 +7049,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="V11" s="14"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="16"/>
@@ -6898,6 +7059,7 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="16"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
@@ -6907,6 +7069,7 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AM11" s="11"/>
       <c r="AN11" s="14"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="16"/>
@@ -6916,6 +7079,7 @@
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="16"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
@@ -6925,6 +7089,7 @@
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="16"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="12"/>
@@ -6936,6 +7101,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="16"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
@@ -6946,6 +7112,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="16"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
@@ -6956,6 +7123,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="V12" s="16"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="16"/>
@@ -6965,6 +7133,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="16"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
@@ -6974,6 +7143,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AM12" s="11"/>
       <c r="AN12" s="16"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="14"/>
@@ -6983,6 +7153,7 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="16"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
@@ -6992,6 +7163,7 @@
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="16"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="12"/>
@@ -7003,6 +7175,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -7013,6 +7186,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
@@ -7023,6 +7197,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="V13" s="16"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="16"/>
@@ -7032,6 +7207,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="14"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
@@ -7041,6 +7217,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AM13" s="11"/>
       <c r="AN13" s="16"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="14"/>
@@ -7050,6 +7227,7 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="16"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
@@ -7059,6 +7237,7 @@
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="16"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
@@ -7070,6 +7249,7 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -7080,6 +7260,7 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="L14" s="16"/>
       <c r="M14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -7090,6 +7271,7 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="U14" s="16"/>
       <c r="V14" s="14"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="16"/>
@@ -7099,6 +7281,7 @@
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="14"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
@@ -7108,6 +7291,7 @@
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AM14" s="16"/>
       <c r="AN14" s="14"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="14"/>
@@ -7117,6 +7301,7 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="16"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
@@ -7126,6 +7311,7 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="16"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
@@ -7137,6 +7323,7 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -7147,6 +7334,7 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -7157,6 +7345,7 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="U15" s="16"/>
       <c r="V15" s="14"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="16"/>
@@ -7166,6 +7355,7 @@
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AD15" s="16"/>
       <c r="AE15" s="14"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
@@ -7175,6 +7365,7 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AM15" s="16"/>
       <c r="AN15" s="14"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="14"/>
@@ -7184,6 +7375,7 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="16"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
@@ -7193,6 +7385,7 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="16"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
@@ -7262,6 +7455,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -7270,14 +7469,8 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Phone Number in this column under this heading" sqref="D4 G4 M4 P4 V4 Y4 AE4 AH4 AN4 AQ4 AW4 AZ4 BF4 BI4" xr:uid="{5DFDE181-4F58-47DB-941F-50B6812D0D43}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Appointment in this column under this heading" sqref="C4 F4 L4 O4 U4 X4 AD4 AG4 AM4 AP4 AV4 AY4 BE4 BH4" xr:uid="{22207068-AA43-4A51-9244-A8225B6CB0C8}"/>
@@ -7313,8 +7506,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BE5" sqref="BE5:BE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7710,6 +7903,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="F5" s="12"/>
       <c r="I5" s="5" t="s">
@@ -7718,6 +7912,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
@@ -7727,6 +7922,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="4"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
@@ -7736,6 +7932,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="4"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
@@ -7745,6 +7942,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AM5" s="11"/>
       <c r="AN5" s="4"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
@@ -7754,6 +7952,7 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="12"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="4"/>
@@ -7763,6 +7962,7 @@
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="12"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="4"/>
@@ -7774,6 +7974,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="F6" s="12"/>
       <c r="I6" s="5" t="s">
@@ -7782,6 +7983,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="4"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
@@ -7791,6 +7993,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="4"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
@@ -7800,6 +8003,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="4"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
@@ -7809,6 +8013,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" s="11"/>
       <c r="AN6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
@@ -7818,6 +8023,7 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="12"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="4"/>
@@ -7827,6 +8033,7 @@
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="12"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="4"/>
@@ -7838,6 +8045,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="F7" s="12"/>
       <c r="I7" s="5" t="s">
@@ -7846,6 +8054,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="4"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
@@ -7855,6 +8064,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="4"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
@@ -7864,6 +8074,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
@@ -7873,6 +8084,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" s="11"/>
       <c r="AN7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
@@ -7882,6 +8094,7 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="12"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="4"/>
@@ -7891,6 +8104,7 @@
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="12"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="4"/>
@@ -7902,6 +8116,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="F8" s="12"/>
       <c r="I8" s="5" t="s">
@@ -7910,6 +8125,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
@@ -7919,6 +8135,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="4"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
@@ -7928,6 +8145,7 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
@@ -7937,6 +8155,7 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="4"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
@@ -7946,6 +8165,7 @@
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="12"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="4"/>
@@ -7955,6 +8175,7 @@
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="12"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="4"/>
@@ -7966,6 +8187,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="F9" s="12"/>
       <c r="I9" s="10" t="s">
@@ -7974,6 +8196,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
@@ -7983,6 +8206,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="U9" s="11"/>
       <c r="V9" s="4"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
@@ -7992,6 +8216,7 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
@@ -8001,6 +8226,7 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="4"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
@@ -8010,6 +8236,7 @@
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="12"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="4"/>
@@ -8019,6 +8246,7 @@
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="12"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="4"/>
@@ -8030,6 +8258,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
       <c r="F10" s="12"/>
       <c r="I10" s="10" t="s">
@@ -8038,6 +8267,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="4"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
@@ -8047,6 +8277,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="4"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
@@ -8056,6 +8287,7 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
@@ -8065,6 +8297,7 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
@@ -8074,6 +8307,7 @@
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="12"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="4"/>
@@ -8083,6 +8317,7 @@
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="12"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="4"/>
@@ -8094,6 +8329,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="F11" s="12"/>
       <c r="I11" s="10" t="s">
@@ -8102,6 +8338,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="4"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
@@ -8111,6 +8348,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="V11" s="4"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
@@ -8120,6 +8358,7 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
@@ -8129,6 +8368,7 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AM11" s="11"/>
       <c r="AN11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
@@ -8138,6 +8378,7 @@
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="12"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="4"/>
@@ -8147,6 +8388,7 @@
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="12"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="4"/>
@@ -8158,6 +8400,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
       <c r="I12" s="10" t="s">
@@ -8166,6 +8409,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -8175,6 +8419,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="V12" s="4"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
@@ -8184,6 +8429,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
@@ -8193,6 +8439,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AM12" s="11"/>
       <c r="AN12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
@@ -8202,6 +8449,7 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="12"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="4"/>
@@ -8211,6 +8459,7 @@
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="12"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="4"/>
@@ -8222,6 +8471,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
       <c r="I13" s="10" t="s">
@@ -8230,6 +8480,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -8239,6 +8490,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="V13" s="4"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
@@ -8248,6 +8500,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
@@ -8257,6 +8510,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AM13" s="11"/>
       <c r="AN13" s="4"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
@@ -8266,6 +8520,7 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="12"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="4"/>
@@ -8275,6 +8530,7 @@
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="12"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="4"/>
@@ -8330,6 +8586,7 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="12"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="4"/>
@@ -8339,6 +8596,7 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="12"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="4"/>
@@ -8394,6 +8652,7 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="12"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="4"/>
@@ -8403,6 +8662,7 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="12"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="4"/>
@@ -8472,6 +8732,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -8480,14 +8746,8 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Date in cell E1" sqref="B3:C3 I3 K3:L3 R3 T3:U3 AA3 AC3:AD3 AJ3 AL3:AM3 AS3 AU3:AV3 BB3 BD3:BE3 BK3" xr:uid="{AC64EEAC-9E57-4100-9123-E658D31DEDD9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in cell at right" sqref="D3 M3 V3 AE3 AN3 AW3 BF3" xr:uid="{55E261F7-A81E-436D-B859-185D742FAA05}"/>
@@ -9693,6 +9953,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -9701,12 +9967,6 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{C256AD20-86C3-43AF-A157-F6F748ADAD93}"/>
@@ -10914,6 +11174,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -10922,12 +11188,6 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{D3B88787-9666-4829-AF1B-AFD0BDE5ED0F}"/>
@@ -12135,6 +12395,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -12143,12 +12409,6 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{5FAFC48E-2820-4639-899D-6240921BAB5B}"/>
@@ -12179,6 +12439,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100577685AB90FCC4498475D6452D048D90" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6fe2089005366a98f0abf53e193a6fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="544010ab-5998-4e47-9e28-04d882867513" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b810a13fcf3b4b751b6351b05549f6f" ns3:_="">
     <xsd:import namespace="544010ab-5998-4e47-9e28-04d882867513"/>
@@ -12368,14 +12636,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12386,6 +12646,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB62CB31-3897-439C-929D-5AFDFE1F0635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12403,22 +12679,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
   <ds:schemaRefs>

--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F793D9-A4BF-074E-BE35-CD5BC06CC0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A88EB00-2E10-B74C-BA57-8DB535ED6471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="3900" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="165">
     <dxf>
       <font>
         <b val="0"/>
@@ -2536,925 +2536,991 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4114,6 +4180,31 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4282,10 +4373,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="159"/>
-      <tableStyleElement type="headerRow" dxfId="158"/>
-      <tableStyleElement type="totalRow" dxfId="157"/>
-      <tableStyleElement type="firstRowStripe" dxfId="156"/>
+      <tableStyleElement type="wholeTable" dxfId="164"/>
+      <tableStyleElement type="headerRow" dxfId="163"/>
+      <tableStyleElement type="totalRow" dxfId="162"/>
+      <tableStyleElement type="firstRowStripe" dxfId="161"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4312,10 +4403,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="153"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="159" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="157" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4331,13 +4422,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C5BF689-7D67-4AAE-9936-6BF5F2752D67}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="118" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="116" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="114" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4356,10 +4447,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="112" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="110" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4378,10 +4469,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="108" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="106" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4400,10 +4491,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="104" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="102" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4422,10 +4513,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="100" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="98" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4444,10 +4535,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="96" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="94" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4463,13 +4554,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{756CC06F-004D-48BE-B33B-097FC515D6F9}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="93"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="88" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="91" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4485,7 +4576,7 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0FF695A-2671-454A-B9AC-3DB129595791}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="88"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
     <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
@@ -4551,13 +4642,13 @@
   <autoFilter ref="K4:R15" xr:uid="{B7B8F908-8DC3-4258-8031-85AFC0EBB259}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F01FA980-845A-43DE-81ED-9339A1E6EEC8}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris" dataDxfId="156" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4796,10 +4887,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5012,7 +5103,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A02BAFB-504F-431B-A149-F6FB78B884AA}" name="Appointments5" displayName="Appointments5" ref="B4:I15" totalsRowShown="0">
   <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="5">
-      <colorFilter dxfId="143"/>
+      <colorFilter dxfId="147"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
@@ -5020,10 +5111,10 @@
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BA11EC77-4355-4978-BE05-46814D60DA77}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="141" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="139" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="143" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5042,10 +5133,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="141" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="139" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5062,12 +5153,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="138" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="136" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="134" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5084,12 +5175,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="133" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="131" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="129" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5106,12 +5197,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="124" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="128" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5127,13 +5218,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C01A3E17-F544-4C12-B883-EFFA13DC4405}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="123" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="121" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="119" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5472,7 +5563,7 @@
   <dimension ref="B1:AA17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5652,6 +5743,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -5662,6 +5754,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="16"/>
       <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
@@ -5684,6 +5777,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -5694,6 +5788,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="16"/>
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -5716,6 +5811,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -5726,6 +5822,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -5748,6 +5845,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -5758,6 +5856,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="16"/>
       <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -5780,6 +5879,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -5790,6 +5890,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="16"/>
       <c r="M9" s="18"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -5812,6 +5913,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -5822,6 +5924,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="17"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -5844,6 +5947,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5854,6 +5958,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -5864,6 +5969,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -5876,6 +5982,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
@@ -5886,6 +5993,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="16"/>
       <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -5896,6 +6004,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="16"/>
       <c r="V12" s="15"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -5908,6 +6017,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
@@ -5918,6 +6028,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="16"/>
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
@@ -5928,6 +6039,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="16"/>
       <c r="V13" s="15"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -5940,6 +6052,7 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -5950,6 +6063,7 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="L14" s="16"/>
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
@@ -5972,6 +6086,7 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -5982,6 +6097,7 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="L15" s="16"/>
       <c r="M15" s="15"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
@@ -6070,8 +6186,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AZ15" sqref="AZ15"/>
+    <sheetView showGridLines="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10:AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6467,6 +6583,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -6477,6 +6594,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -6487,6 +6605,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="16"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
@@ -6496,6 +6615,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="15"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
@@ -6505,6 +6625,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AM5" s="11"/>
       <c r="AN5" s="16"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="16"/>
@@ -6514,6 +6635,7 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="16"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
@@ -6523,6 +6645,7 @@
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="16"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
@@ -6534,6 +6657,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -6544,6 +6668,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="15"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -6554,6 +6679,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="16"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -6563,6 +6689,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="15"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
@@ -6572,6 +6699,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" s="11"/>
       <c r="AN6" s="16"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="16"/>
@@ -6581,6 +6709,7 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="16"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
@@ -6590,6 +6719,7 @@
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="16"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
@@ -6601,6 +6731,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="16"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -6611,6 +6742,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="15"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -6621,6 +6753,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="16"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -6630,6 +6763,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="15"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
@@ -6639,6 +6773,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" s="11"/>
       <c r="AN7" s="16"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="16"/>
@@ -6648,6 +6783,7 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="16"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="6"/>
@@ -6657,6 +6793,7 @@
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="16"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="6"/>
@@ -6668,6 +6805,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -6678,6 +6816,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
@@ -6688,6 +6827,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U8" s="6"/>
       <c r="V8" s="16"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -6697,6 +6837,7 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="6"/>
       <c r="AE8" s="15"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
@@ -6706,6 +6847,7 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="16"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="16"/>
@@ -6715,6 +6857,7 @@
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="16"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="6"/>
@@ -6724,6 +6867,7 @@
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="16"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="6"/>
@@ -6735,6 +6879,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="15"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -6745,6 +6890,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="6"/>
       <c r="M9" s="16"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
@@ -6755,6 +6901,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="U9" s="6"/>
       <c r="V9" s="15"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
@@ -6764,6 +6911,7 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AD9" s="6"/>
       <c r="AE9" s="16"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
@@ -6773,6 +6921,7 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="15"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="16"/>
@@ -6782,6 +6931,7 @@
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="16"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
@@ -6791,6 +6941,7 @@
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="16"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
@@ -6802,6 +6953,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="15"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
@@ -6812,6 +6964,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="16"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
@@ -6822,6 +6975,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="15"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="16"/>
@@ -6831,6 +6985,7 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="16"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
@@ -6840,6 +6995,7 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="15"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="16"/>
@@ -6849,6 +7005,7 @@
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="16"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
@@ -6858,6 +7015,7 @@
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="16"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
@@ -6869,6 +7027,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
@@ -6879,6 +7038,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="16"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
@@ -6889,6 +7049,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="V11" s="14"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="16"/>
@@ -6898,6 +7059,7 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="16"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
@@ -6907,6 +7069,7 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AM11" s="11"/>
       <c r="AN11" s="14"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="16"/>
@@ -6916,6 +7079,7 @@
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="16"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
@@ -6925,6 +7089,7 @@
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="16"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="12"/>
@@ -6936,6 +7101,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="16"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
@@ -6946,6 +7112,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="16"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
@@ -6956,6 +7123,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="V12" s="16"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="16"/>
@@ -6965,6 +7133,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="16"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
@@ -6974,6 +7143,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AM12" s="11"/>
       <c r="AN12" s="16"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="14"/>
@@ -6983,6 +7153,7 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="16"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
@@ -6992,6 +7163,7 @@
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="16"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="12"/>
@@ -7003,6 +7175,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -7013,6 +7186,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
@@ -7023,6 +7197,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="V13" s="16"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="16"/>
@@ -7032,6 +7207,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="14"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
@@ -7041,6 +7217,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AM13" s="11"/>
       <c r="AN13" s="16"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="14"/>
@@ -7050,6 +7227,7 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="16"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
@@ -7059,6 +7237,7 @@
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="16"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
@@ -7070,6 +7249,7 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -7080,6 +7260,7 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="L14" s="16"/>
       <c r="M14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -7090,6 +7271,7 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="U14" s="16"/>
       <c r="V14" s="14"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="16"/>
@@ -7099,6 +7281,7 @@
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="14"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
@@ -7108,6 +7291,7 @@
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AM14" s="16"/>
       <c r="AN14" s="14"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="14"/>
@@ -7117,6 +7301,7 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="16"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
@@ -7126,6 +7311,7 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="16"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
@@ -7137,6 +7323,7 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -7147,6 +7334,7 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -7157,6 +7345,7 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="U15" s="16"/>
       <c r="V15" s="14"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="16"/>
@@ -7166,6 +7355,7 @@
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AD15" s="16"/>
       <c r="AE15" s="14"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
@@ -7175,6 +7365,7 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AM15" s="16"/>
       <c r="AN15" s="14"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="14"/>
@@ -7184,6 +7375,7 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="16"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
@@ -7193,6 +7385,7 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="16"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
@@ -7277,7 +7470,7 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Phone Number in this column under this heading" sqref="D4 G4 M4 P4 V4 Y4 AE4 AH4 AN4 AQ4 AW4 AZ4 BF4 BI4" xr:uid="{5DFDE181-4F58-47DB-941F-50B6812D0D43}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Appointment in this column under this heading" sqref="C4 F4 L4 O4 U4 X4 AD4 AG4 AM4 AP4 AV4 AY4 BE4 BH4" xr:uid="{22207068-AA43-4A51-9244-A8225B6CB0C8}"/>
@@ -7314,7 +7507,7 @@
   <dimension ref="B1:BK17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="BE5" sqref="BE5:BE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7710,6 +7903,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="F5" s="12"/>
       <c r="I5" s="5" t="s">
@@ -7718,6 +7912,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
@@ -7727,6 +7922,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="4"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
@@ -7736,6 +7932,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="4"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
@@ -7745,6 +7942,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AM5" s="11"/>
       <c r="AN5" s="4"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
@@ -7754,6 +7952,7 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="12"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="4"/>
@@ -7763,6 +7962,7 @@
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="12"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="4"/>
@@ -7774,6 +7974,7 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="F6" s="12"/>
       <c r="I6" s="5" t="s">
@@ -7782,6 +7983,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="4"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
@@ -7791,6 +7993,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="4"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
@@ -7800,6 +8003,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="4"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
@@ -7809,6 +8013,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" s="11"/>
       <c r="AN6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
@@ -7818,6 +8023,7 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="12"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="4"/>
@@ -7827,6 +8033,7 @@
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="12"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="4"/>
@@ -7838,6 +8045,7 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="F7" s="12"/>
       <c r="I7" s="5" t="s">
@@ -7846,6 +8054,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="4"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
@@ -7855,6 +8064,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="4"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
@@ -7864,6 +8074,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
@@ -7873,6 +8084,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" s="11"/>
       <c r="AN7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
@@ -7882,6 +8094,7 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="12"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="4"/>
@@ -7891,6 +8104,7 @@
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="12"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="4"/>
@@ -7902,6 +8116,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="F8" s="12"/>
       <c r="I8" s="5" t="s">
@@ -7910,6 +8125,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
@@ -7919,6 +8135,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="4"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
@@ -7928,6 +8145,7 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
@@ -7937,6 +8155,7 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="4"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
@@ -7946,6 +8165,7 @@
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="12"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="4"/>
@@ -7955,6 +8175,7 @@
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="12"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="4"/>
@@ -7966,6 +8187,7 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="F9" s="12"/>
       <c r="I9" s="10" t="s">
@@ -7974,6 +8196,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
@@ -7983,6 +8206,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="U9" s="11"/>
       <c r="V9" s="4"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
@@ -7992,6 +8216,7 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
@@ -8001,6 +8226,7 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="4"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
@@ -8010,6 +8236,7 @@
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="12"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="4"/>
@@ -8019,6 +8246,7 @@
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="12"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="4"/>
@@ -8030,6 +8258,7 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
       <c r="F10" s="12"/>
       <c r="I10" s="10" t="s">
@@ -8038,6 +8267,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="4"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
@@ -8047,6 +8277,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="4"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
@@ -8056,6 +8287,7 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
@@ -8065,6 +8297,7 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
@@ -8074,6 +8307,7 @@
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="12"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="4"/>
@@ -8083,6 +8317,7 @@
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="12"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="4"/>
@@ -8094,6 +8329,7 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="F11" s="12"/>
       <c r="I11" s="10" t="s">
@@ -8102,6 +8338,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="4"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
@@ -8111,6 +8348,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="V11" s="4"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
@@ -8120,6 +8358,7 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
@@ -8129,6 +8368,7 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AM11" s="11"/>
       <c r="AN11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
@@ -8138,6 +8378,7 @@
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="12"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="4"/>
@@ -8147,6 +8388,7 @@
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="12"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="4"/>
@@ -8158,6 +8400,7 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
       <c r="I12" s="10" t="s">
@@ -8166,6 +8409,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -8175,6 +8419,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="V12" s="4"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
@@ -8184,6 +8429,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
@@ -8193,6 +8439,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AM12" s="11"/>
       <c r="AN12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
@@ -8202,6 +8449,7 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="12"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="4"/>
@@ -8211,6 +8459,7 @@
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="12"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="4"/>
@@ -8222,6 +8471,7 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
       <c r="I13" s="10" t="s">
@@ -8230,6 +8480,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -8239,6 +8490,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="V13" s="4"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
@@ -8248,6 +8500,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
@@ -8257,6 +8510,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AM13" s="11"/>
       <c r="AN13" s="4"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
@@ -8266,6 +8520,7 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="12"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="4"/>
@@ -8275,6 +8530,7 @@
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="12"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="4"/>
@@ -8330,6 +8586,7 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="12"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="4"/>
@@ -8339,6 +8596,7 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="12"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="4"/>
@@ -8394,6 +8652,7 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="12"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="4"/>
@@ -8403,6 +8662,7 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="12"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="4"/>
@@ -8487,7 +8747,7 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Date in cell E1" sqref="B3:C3 I3 K3:L3 R3 T3:U3 AA3 AC3:AD3 AJ3 AL3:AM3 AS3 AU3:AV3 BB3 BD3:BE3 BK3" xr:uid="{AC64EEAC-9E57-4100-9123-E658D31DEDD9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in cell at right" sqref="D3 M3 V3 AE3 AN3 AW3 BF3" xr:uid="{55E261F7-A81E-436D-B859-185D742FAA05}"/>
@@ -12179,6 +12439,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100577685AB90FCC4498475D6452D048D90" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6fe2089005366a98f0abf53e193a6fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="544010ab-5998-4e47-9e28-04d882867513" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b810a13fcf3b4b751b6351b05549f6f" ns3:_="">
     <xsd:import namespace="544010ab-5998-4e47-9e28-04d882867513"/>
@@ -12368,7 +12637,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
@@ -12376,16 +12645,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB62CB31-3897-439C-929D-5AFDFE1F0635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12403,7 +12671,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -12417,12 +12685,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A88EB00-2E10-B74C-BA57-8DB535ED6471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD138E4-CBC6-3F46-8934-E09B4D27E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-25980" windowWidth="27200" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,18 @@
     <definedName name="RowTitleRegion1..E1">'wk 1 (20-22 Jan)'!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,8 +207,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +272,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -304,26 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -334,82 +333,7 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="165">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="156">
     <dxf>
       <font>
         <b val="0"/>
@@ -528,8 +452,208 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2536,1675 +2660,1376 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4373,10 +4198,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="164"/>
-      <tableStyleElement type="headerRow" dxfId="163"/>
-      <tableStyleElement type="totalRow" dxfId="162"/>
-      <tableStyleElement type="firstRowStripe" dxfId="161"/>
+      <tableStyleElement type="wholeTable" dxfId="155"/>
+      <tableStyleElement type="headerRow" dxfId="154"/>
+      <tableStyleElement type="totalRow" dxfId="153"/>
+      <tableStyleElement type="firstRowStripe" dxfId="152"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4403,10 +4228,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="159" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="158"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="157" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4422,13 +4247,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C5BF689-7D67-4AAE-9936-6BF5F2752D67}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="118" dataCellStyle="Phone"/>
+    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="116" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="114" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="3" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="1" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4447,10 +4272,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="112" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="110" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4469,10 +4294,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="108" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="106" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4491,10 +4316,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="104" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="102" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4513,10 +4338,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="100" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="98" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4535,10 +4360,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="96" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="94" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4554,13 +4379,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{756CC06F-004D-48BE-B33B-097FC515D6F9}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="91" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4576,13 +4401,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0FF695A-2671-454A-B9AC-3DB129595791}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="86" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="84" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4601,10 +4426,10 @@
     <tableColumn id="2" xr3:uid="{C94180EE-1407-4985-8FC4-31B24FD20334}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C6273117-9D1B-4E78-A8BD-B9AFC0FEA4E0}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{28390446-140E-4C34-B6AE-CB73B4D47E90}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="82" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="80" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="87" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="85" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4623,10 +4448,10 @@
     <tableColumn id="2" xr3:uid="{DF5403CA-E344-4631-B2FA-F0E9C07A0B3B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0EB7220C-7400-44F1-9799-008E8292B142}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{55720B1D-3AF4-4697-ABB8-12D14E619F50}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="78" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="76" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="83" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="81" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4642,13 +4467,13 @@
   <autoFilter ref="K4:R15" xr:uid="{B7B8F908-8DC3-4258-8031-85AFC0EBB259}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F01FA980-845A-43DE-81ED-9339A1E6EEC8}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris" dataDxfId="156" dataCellStyle="Phone"/>
+    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="153"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4667,10 +4492,10 @@
     <tableColumn id="2" xr3:uid="{82E27544-CFE2-4FCB-929E-F38F8E8BCF72}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BFD43BAD-D695-4D65-8BF4-7FE074F6FAC6}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{386AB347-591A-4CC2-BE5A-89A3C4CE8B1D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="74" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="72" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="79" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="77" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4689,10 +4514,10 @@
     <tableColumn id="2" xr3:uid="{10F2AFDE-A8B8-4625-BAA7-CB80BAB19A74}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{7DECF3E4-30A3-41C2-9278-3705B2CF40DB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A5C5B894-258A-4E94-BB90-F0A974DB7A6C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="70" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="68" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="75" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="73" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4711,10 +4536,10 @@
     <tableColumn id="2" xr3:uid="{CE59DEA0-9236-4D4E-BE63-600CB1F2627F}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DF15F544-5901-4042-ACFC-62AA35048C59}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AA60B96D-C403-41BC-8BF3-726171B925D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="66" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="64" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="71" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="69" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4733,10 +4558,10 @@
     <tableColumn id="2" xr3:uid="{F7A4435C-F5DA-43E5-96E8-2666A7DE6C5D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{24037A76-A296-4FCD-B87D-C98A1655B019}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{DA68FFB9-CDF9-4FA8-9E7F-AC89FD09986A}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="62" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="60" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="67" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="65" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4755,10 +4580,10 @@
     <tableColumn id="2" xr3:uid="{2B89BE19-628C-43B9-9A4F-FD8692426C08}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{247E3465-550A-4E14-84D4-EA3481167E5A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{01C84747-0BDD-4DEF-AC61-87B11910F555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="58" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="56" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="63" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="61" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4777,10 +4602,10 @@
     <tableColumn id="2" xr3:uid="{7827D7BB-C78D-453E-A7F5-5EDDDECC7B77}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{34C52336-5EB3-4B4A-962F-0ABEECC6F20B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{385B235D-CDDC-4630-A31C-93CE09396031}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="54" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="52" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="59" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="57" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4799,10 +4624,10 @@
     <tableColumn id="2" xr3:uid="{CF15D9C0-1B5E-4D51-8CFD-9C9811ADAAB3}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{D775262F-5CAC-4E3B-B2A9-A86E78D2B760}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{77BECF23-AAE1-4FDE-B07B-1B5A963BF75D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="50" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="48" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="55" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="53" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4821,10 +4646,10 @@
     <tableColumn id="2" xr3:uid="{49FE5D61-7D29-4313-898A-830774DBD47A}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90EA046A-3464-4813-A515-441DB628E5D4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F68C3E9-22B1-412D-8561-CDB82609A974}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="46" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="44" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="51" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="49" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4843,10 +4668,10 @@
     <tableColumn id="2" xr3:uid="{03308F6F-7210-41F4-9A07-5979E98F17A9}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A6C76DF6-FD7A-4B5B-882F-1CB21320DF76}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{56992E42-B37C-4386-ADAA-6BFDC7965FFE}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="42" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="40" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="47" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="45" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4865,10 +4690,10 @@
     <tableColumn id="2" xr3:uid="{31480843-9B73-4338-93C3-7BD9399442EA}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A90BA791-6066-47FD-9350-3E02120E2D64}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C66952DF-A7AB-4652-9624-12AD4334047E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="38" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="36" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="43" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="41" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4887,10 +4712,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4909,10 +4734,10 @@
     <tableColumn id="2" xr3:uid="{54FD0529-ADCD-4B53-B89F-E86041948760}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90F149A0-726C-46FC-84B2-9F8DEBCD7A8A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A4E2FD44-3916-4E9E-8FA7-0FFE817BC883}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="34" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="32" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="39" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="37" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4931,10 +4756,10 @@
     <tableColumn id="2" xr3:uid="{EEA6CB8E-095C-4E58-9685-A72D229B6858}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{6DC39266-36A3-4946-8DCE-8B47BB9B4183}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A76FAE03-CD47-4F58-BAAA-E0B399383AAF}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="30" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="28" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="35" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="33" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4953,10 +4778,10 @@
     <tableColumn id="2" xr3:uid="{C0E329BF-1DCB-4D86-A33C-365B440B70E7}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{003F982F-BD88-4265-93AF-64094B13BDFB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{F89F2619-1757-4DDE-AFC6-B7187DA84CBB}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="26" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="24" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="31" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="29" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4975,10 +4800,10 @@
     <tableColumn id="2" xr3:uid="{64619660-65D6-4C45-BC25-67A7E10F3358}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EE17890D-92A4-4A8E-AF68-AD5B0E4DE02A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{B0DCC0DC-F3ED-48D9-8EBD-678B062883D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="22" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="20" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="27" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="25" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4997,10 +4822,10 @@
     <tableColumn id="2" xr3:uid="{443189F4-32D8-468C-9055-BDC7AD9CD990}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EBCEC7EE-23ED-4FAF-8B83-46D11C025580}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{E3B2AFF1-955C-47F4-B38F-D11790DB9CB7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="18" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="16" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="23" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="21" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5019,10 +4844,10 @@
     <tableColumn id="2" xr3:uid="{4D3D2ADB-B410-4BB3-92F0-5796EF387FD6}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BBB04EDB-D05B-42A2-BA84-AB8CFFF17C8C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{0B6B181D-59AF-48AE-B2F7-9B8848D9B577}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="14" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="12" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="19" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="17" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5041,10 +4866,10 @@
     <tableColumn id="2" xr3:uid="{CD5272FA-F49A-4BE8-948F-8EF3E3E7AE75}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{ECD03D01-EDB4-47B6-B1C9-690C5BC6DBEA}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{4AA58E18-12DB-4F38-8402-929EE81E6FBD}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="10" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="8" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="15" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="13" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5063,10 +4888,10 @@
     <tableColumn id="2" xr3:uid="{A2088134-3A7C-4DE9-B0F3-AA7574753BDE}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9521E4C5-7D16-40BD-8736-5774F4A03DE5}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C16241CE-FCD4-4B92-8C75-1E60871988FC}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="6" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="4" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="11" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="9" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5085,10 +4910,10 @@
     <tableColumn id="2" xr3:uid="{6123AA27-D3FE-4F54-B9D1-CC55C3AED696}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{3319C129-20F6-4D73-B7CB-5325839EC3B4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{BB0ADEA4-48EE-42C3-83CE-C03FE1EE6FA2}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="2" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="0" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="7" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="5" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5101,20 +4926,16 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A02BAFB-504F-431B-A149-F6FB78B884AA}" name="Appointments5" displayName="Appointments5" ref="B4:I15" totalsRowShown="0">
-  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <colorFilter dxfId="147"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5F0995BE-F391-4B57-87DF-65C548CB18D5}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BA11EC77-4355-4978-BE05-46814D60DA77}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="144"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="143" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="138" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="136" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5133,10 +4954,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="141" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="139" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="134" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="133"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="132" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5153,12 +4974,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="138" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="136" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="134" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="130" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="128" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5175,12 +4996,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="133" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="131" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="129" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5197,12 +5018,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="128" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5218,13 +5039,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C01A3E17-F544-4C12-B883-EFFA13DC4405}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="123" dataCellStyle="Phone"/>
+    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="121" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="119" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5562,8 +5383,8 @@
   </sheetPr>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5628,40 +5449,40 @@
     </row>
     <row r="2" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>44946</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <v>44947</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>44948</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
@@ -5743,32 +5564,33 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="15"/>
+      <c r="V5" s="4"/>
       <c r="W5" s="11"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
@@ -5777,32 +5599,33 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="11"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
       </c>
@@ -5811,32 +5634,33 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="6"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="15"/>
+      <c r="V7" s="4"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="6"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
       </c>
@@ -5845,32 +5669,33 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="4"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="6"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
@@ -5879,32 +5704,33 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="16"/>
+      <c r="V9" s="4"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5913,32 +5739,33 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="4"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
@@ -5947,33 +5774,33 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="V11" s="4"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
@@ -5982,33 +5809,33 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="18"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="15"/>
+      <c r="V12" s="4"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
       </c>
@@ -6017,33 +5844,33 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="16"/>
-      <c r="V13" s="15"/>
+      <c r="V13" s="4"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
       </c>
@@ -6052,32 +5879,33 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
       </c>
@@ -6086,32 +5914,33 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="15"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
       </c>
@@ -6186,8 +6015,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10:AM13"/>
+    <sheetView showGridLines="0" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5:AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6324,88 +6153,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>44949</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <v>44950</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>44951</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="15">
         <v>44952</v>
       </c>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="15">
         <v>44953</v>
       </c>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="20">
+      <c r="AX3" s="15">
         <v>44954</v>
       </c>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="20">
+      <c r="BG3" s="15">
         <v>44955</v>
       </c>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -6583,72 +6412,72 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="16"/>
+      <c r="V5" s="4"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="15"/>
+      <c r="AE5" s="4"/>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="11"/>
       <c r="AJ5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="16"/>
+      <c r="AN5" s="4"/>
       <c r="AP5" s="11"/>
-      <c r="AQ5" s="16"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="11"/>
       <c r="AS5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="16"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="16"/>
       <c r="BB5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BE5" s="16"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="16"/>
       <c r="BK5" s="5" t="s">
         <v>10</v>
       </c>
@@ -6657,72 +6486,72 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="16"/>
+      <c r="V6" s="4"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="15"/>
+      <c r="AE6" s="4"/>
       <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="11"/>
       <c r="AJ6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="16"/>
+      <c r="AN6" s="4"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="16"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="11"/>
       <c r="AS6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AV6" s="16"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="16"/>
       <c r="BB6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BE6" s="16"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="16"/>
       <c r="BK6" s="5" t="s">
         <v>11</v>
       </c>
@@ -6731,72 +6560,72 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="16"/>
+      <c r="V7" s="4"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="15"/>
+      <c r="AE7" s="4"/>
       <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="11"/>
       <c r="AJ7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="16"/>
+      <c r="AN7" s="4"/>
       <c r="AP7" s="11"/>
-      <c r="AQ7" s="16"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="11"/>
       <c r="AS7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AV7" s="16"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
-      <c r="AZ7" s="6"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="16"/>
       <c r="BB7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BE7" s="16"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
-      <c r="BI7" s="6"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="16"/>
       <c r="BK7" s="5" t="s">
         <v>12</v>
       </c>
@@ -6805,72 +6634,72 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="4"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="15"/>
+      <c r="AE8" s="4"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="16"/>
       <c r="AJ8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="16"/>
+      <c r="AN8" s="4"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="16"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="16"/>
       <c r="AS8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AV8" s="16"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
-      <c r="AZ8" s="6"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="16"/>
       <c r="BB8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BE8" s="16"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
-      <c r="BI8" s="6"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="16"/>
       <c r="BK8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6879,72 +6708,72 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="15"/>
+      <c r="V9" s="4"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="16"/>
+      <c r="AE9" s="4"/>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="16"/>
       <c r="AJ9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="15"/>
+      <c r="AN9" s="4"/>
       <c r="AP9" s="11"/>
-      <c r="AQ9" s="16"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="16"/>
       <c r="AS9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AV9" s="16"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
-      <c r="AZ9" s="12"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="16"/>
       <c r="BB9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BE9" s="16"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
-      <c r="BI9" s="12"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="16"/>
       <c r="BK9" s="10" t="s">
         <v>19</v>
       </c>
@@ -6953,72 +6782,72 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="15"/>
+      <c r="V10" s="4"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="16"/>
+      <c r="AE10" s="4"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="16"/>
       <c r="AJ10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="15"/>
+      <c r="AN10" s="4"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="16"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="16"/>
       <c r="AS10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AV10" s="16"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
-      <c r="AZ10" s="12"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="16"/>
       <c r="BB10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="BE10" s="16"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
-      <c r="BI10" s="12"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="16"/>
       <c r="BK10" s="10" t="s">
         <v>24</v>
       </c>
@@ -7027,72 +6856,72 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="14"/>
+      <c r="V11" s="4"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="16"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="16"/>
+      <c r="AE11" s="4"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="16"/>
       <c r="AJ11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="14"/>
+      <c r="AN11" s="4"/>
       <c r="AP11" s="11"/>
-      <c r="AQ11" s="16"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="16"/>
       <c r="AS11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" s="16"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
-      <c r="AZ11" s="12"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="16"/>
       <c r="BB11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BE11" s="16"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
-      <c r="BI11" s="12"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="16"/>
       <c r="BK11" s="10" t="s">
         <v>20</v>
       </c>
@@ -7101,72 +6930,72 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="16"/>
+      <c r="V12" s="4"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="16"/>
+      <c r="AE12" s="4"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="6"/>
       <c r="AJ12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="16"/>
+      <c r="AN12" s="4"/>
       <c r="AP12" s="11"/>
-      <c r="AQ12" s="14"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="6"/>
       <c r="AS12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AV12" s="16"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
-      <c r="AZ12" s="12"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="16"/>
       <c r="BB12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BE12" s="16"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
-      <c r="BI12" s="12"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="16"/>
       <c r="BK12" s="10" t="s">
         <v>25</v>
       </c>
@@ -7175,72 +7004,72 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="16"/>
+      <c r="V13" s="4"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="16"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="14"/>
+      <c r="AE13" s="4"/>
       <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="6"/>
       <c r="AJ13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="16"/>
+      <c r="AN13" s="4"/>
       <c r="AP13" s="11"/>
-      <c r="AQ13" s="14"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="6"/>
       <c r="AS13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AV13" s="16"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
-      <c r="AZ13" s="12"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="16"/>
       <c r="BB13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="BE13" s="16"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
-      <c r="BI13" s="12"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="16"/>
       <c r="BK13" s="10" t="s">
         <v>21</v>
       </c>
@@ -7249,72 +7078,72 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="4"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="16"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="14"/>
+      <c r="AE14" s="4"/>
       <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="11"/>
       <c r="AJ14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="14"/>
+      <c r="AN14" s="4"/>
       <c r="AP14" s="12"/>
-      <c r="AQ14" s="14"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="11"/>
       <c r="AS14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AV14" s="16"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
-      <c r="AZ14" s="12"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="16"/>
       <c r="BB14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BE14" s="16"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
-      <c r="BI14" s="12"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="16"/>
       <c r="BK14" s="10" t="s">
         <v>22</v>
       </c>
@@ -7323,72 +7152,72 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="4"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="16"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="14"/>
+      <c r="AE15" s="4"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="11"/>
       <c r="AJ15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="14"/>
+      <c r="AN15" s="4"/>
       <c r="AP15" s="12"/>
-      <c r="AQ15" s="14"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="11"/>
       <c r="AS15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AV15" s="16"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="11"/>
       <c r="BB15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BE15" s="16"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
-      <c r="BI15" s="12"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="11"/>
       <c r="BK15" s="10" t="s">
         <v>23</v>
       </c>
@@ -7470,7 +7299,8 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="8">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Phone Number in this column under this heading" sqref="D4 G4 M4 P4 V4 Y4 AE4 AH4 AN4 AQ4 AW4 AZ4 BF4 BI4" xr:uid="{5DFDE181-4F58-47DB-941F-50B6812D0D43}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Appointment in this column under this heading" sqref="C4 F4 L4 O4 U4 X4 AD4 AG4 AM4 AP4 AV4 AY4 BE4 BH4" xr:uid="{22207068-AA43-4A51-9244-A8225B6CB0C8}"/>
@@ -7506,8 +7336,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5:BE15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7644,88 +7474,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>44956</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <v>44957</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>44958</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="15">
         <v>44959</v>
       </c>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="15">
         <v>44960</v>
       </c>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="20">
+      <c r="AX3" s="15">
         <v>44961</v>
       </c>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="20">
+      <c r="BG3" s="15">
         <v>44962</v>
       </c>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -7903,69 +7733,70 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="F5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="11"/>
       <c r="V5" s="4"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
+      <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AD5" s="11"/>
       <c r="AE5" s="4"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
+      <c r="AI5" s="11"/>
       <c r="AJ5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AM5" s="11"/>
       <c r="AN5" s="4"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
+      <c r="AR5" s="11"/>
       <c r="AS5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="12"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="4"/>
+      <c r="BA5" s="16"/>
       <c r="BB5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BE5" s="12"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="4"/>
+      <c r="BJ5" s="16"/>
       <c r="BK5" s="5" t="s">
         <v>10</v>
       </c>
@@ -7974,69 +7805,70 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="F6" s="12"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="11"/>
       <c r="M6" s="4"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="11"/>
       <c r="V6" s="4"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
+      <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD6" s="11"/>
       <c r="AE6" s="4"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
+      <c r="AI6" s="11"/>
       <c r="AJ6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AM6" s="11"/>
       <c r="AN6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
+      <c r="AR6" s="11"/>
       <c r="AS6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AV6" s="12"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="4"/>
+      <c r="BA6" s="16"/>
       <c r="BB6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BE6" s="12"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="4"/>
+      <c r="BJ6" s="16"/>
       <c r="BK6" s="5" t="s">
         <v>11</v>
       </c>
@@ -8045,69 +7877,70 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="F7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="11"/>
       <c r="M7" s="4"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="11"/>
       <c r="V7" s="4"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
+      <c r="AI7" s="11"/>
       <c r="AJ7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AM7" s="11"/>
       <c r="AN7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
+      <c r="AR7" s="11"/>
       <c r="AS7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AV7" s="12"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="4"/>
+      <c r="BA7" s="16"/>
       <c r="BB7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BE7" s="12"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="4"/>
+      <c r="BJ7" s="16"/>
       <c r="BK7" s="5" t="s">
         <v>12</v>
       </c>
@@ -8116,69 +7949,70 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="F8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U8" s="11"/>
       <c r="V8" s="4"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
+      <c r="AI8" s="16"/>
       <c r="AJ8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AM8" s="6"/>
       <c r="AN8" s="4"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
+      <c r="AR8" s="16"/>
       <c r="AS8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AV8" s="12"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="4"/>
+      <c r="BA8" s="16"/>
       <c r="BB8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BE8" s="12"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="4"/>
+      <c r="BJ8" s="16"/>
       <c r="BK8" s="5" t="s">
         <v>18</v>
       </c>
@@ -8187,69 +8021,70 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="F9" s="12"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="11"/>
       <c r="V9" s="4"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
+      <c r="AI9" s="16"/>
       <c r="AJ9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AM9" s="6"/>
       <c r="AN9" s="4"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
+      <c r="AR9" s="16"/>
       <c r="AS9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AV9" s="12"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="4"/>
+      <c r="BA9" s="16"/>
       <c r="BB9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BE9" s="12"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="4"/>
+      <c r="BJ9" s="16"/>
       <c r="BK9" s="10" t="s">
         <v>19</v>
       </c>
@@ -8258,69 +8093,70 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
       <c r="F10" s="12"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="11"/>
       <c r="M10" s="4"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="11"/>
       <c r="V10" s="4"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
+      <c r="AI10" s="16"/>
       <c r="AJ10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AM10" s="11"/>
       <c r="AN10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
+      <c r="AR10" s="16"/>
       <c r="AS10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AV10" s="12"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="4"/>
+      <c r="BA10" s="16"/>
       <c r="BB10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="BE10" s="12"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="4"/>
+      <c r="BJ10" s="16"/>
       <c r="BK10" s="10" t="s">
         <v>24</v>
       </c>
@@ -8329,69 +8165,70 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="F11" s="12"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="11"/>
       <c r="M11" s="4"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="11"/>
       <c r="V11" s="4"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
+      <c r="AI11" s="16"/>
       <c r="AJ11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AM11" s="11"/>
       <c r="AN11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
+      <c r="AR11" s="16"/>
       <c r="AS11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AV11" s="12"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="4"/>
+      <c r="BA11" s="16"/>
       <c r="BB11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BE11" s="12"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="4"/>
+      <c r="BJ11" s="16"/>
       <c r="BK11" s="10" t="s">
         <v>20</v>
       </c>
@@ -8400,69 +8237,70 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="11"/>
       <c r="V12" s="4"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
+      <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
+      <c r="AI12" s="6"/>
       <c r="AJ12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AM12" s="11"/>
       <c r="AN12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
+      <c r="AR12" s="6"/>
       <c r="AS12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AV12" s="12"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="4"/>
+      <c r="BA12" s="16"/>
       <c r="BB12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BE12" s="12"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="4"/>
+      <c r="BJ12" s="16"/>
       <c r="BK12" s="10" t="s">
         <v>25</v>
       </c>
@@ -8471,69 +8309,70 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11"/>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="11"/>
       <c r="V13" s="4"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
+      <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
+      <c r="AI13" s="6"/>
       <c r="AJ13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AM13" s="11"/>
       <c r="AN13" s="4"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
+      <c r="AR13" s="6"/>
       <c r="AS13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AV13" s="12"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="4"/>
+      <c r="BA13" s="16"/>
       <c r="BB13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="BE13" s="12"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="4"/>
+      <c r="BJ13" s="16"/>
       <c r="BK13" s="10" t="s">
         <v>21</v>
       </c>
@@ -8544,6 +8383,8 @@
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
       </c>
@@ -8553,6 +8394,7 @@
       <c r="M14" s="4"/>
       <c r="O14" s="12"/>
       <c r="P14" s="4"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
       </c>
@@ -8562,6 +8404,7 @@
       <c r="V14" s="4"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="4"/>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
       </c>
@@ -8571,6 +8414,7 @@
       <c r="AE14" s="4"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="4"/>
+      <c r="AI14" s="11"/>
       <c r="AJ14" s="10" t="s">
         <v>22</v>
       </c>
@@ -8580,26 +8424,27 @@
       <c r="AN14" s="4"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="4"/>
+      <c r="AR14" s="11"/>
       <c r="AS14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AV14" s="12"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="4"/>
+      <c r="BA14" s="11"/>
       <c r="BB14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BE14" s="12"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="4"/>
+      <c r="BJ14" s="11"/>
       <c r="BK14" s="10" t="s">
         <v>22</v>
       </c>
@@ -8610,6 +8455,8 @@
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
@@ -8619,6 +8466,7 @@
       <c r="M15" s="4"/>
       <c r="O15" s="12"/>
       <c r="P15" s="4"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
       </c>
@@ -8628,6 +8476,7 @@
       <c r="V15" s="4"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="4"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
       </c>
@@ -8637,6 +8486,7 @@
       <c r="AE15" s="4"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="4"/>
+      <c r="AI15" s="11"/>
       <c r="AJ15" s="10" t="s">
         <v>23</v>
       </c>
@@ -8646,26 +8496,27 @@
       <c r="AN15" s="4"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="4"/>
+      <c r="AR15" s="11"/>
       <c r="AS15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AV15" s="12"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="4"/>
+      <c r="BA15" s="11"/>
       <c r="BB15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BE15" s="12"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="4"/>
+      <c r="BJ15" s="11"/>
       <c r="BK15" s="10" t="s">
         <v>23</v>
       </c>
@@ -8747,7 +8598,7 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="8">
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Date in cell E1" sqref="B3:C3 I3 K3:L3 R3 T3:U3 AA3 AC3:AD3 AJ3 AL3:AM3 AS3 AU3:AV3 BB3 BD3:BE3 BK3" xr:uid="{AC64EEAC-9E57-4100-9123-E658D31DEDD9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in cell at right" sqref="D3 M3 V3 AE3 AN3 AW3 BF3" xr:uid="{55E261F7-A81E-436D-B859-185D742FAA05}"/>
@@ -8921,88 +8772,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>44963</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <v>44964</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>44965</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="15">
         <v>44966</v>
       </c>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="15">
         <v>44967</v>
       </c>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="20">
+      <c r="AX3" s="15">
         <v>44968</v>
       </c>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="20">
+      <c r="BG3" s="15">
         <v>44969</v>
       </c>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -10142,88 +9993,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>44970</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <v>44971</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>44972</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="15">
         <v>44973</v>
       </c>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="15">
         <v>44974</v>
       </c>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="20">
+      <c r="AX3" s="15">
         <v>44975</v>
       </c>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="20">
+      <c r="BG3" s="15">
         <v>44976</v>
       </c>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -11363,88 +11214,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>44977</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <v>44978</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>44979</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="15">
         <v>44980</v>
       </c>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="15">
         <v>44981</v>
       </c>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="20">
+      <c r="AX3" s="15">
         <v>44982</v>
       </c>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="20">
+      <c r="BG3" s="15">
         <v>44983</v>
       </c>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>

--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD138E4-CBC6-3F46-8934-E09B4D27E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E08F7-FD55-4242-880A-960F482306EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-25980" windowWidth="27200" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="560" windowWidth="23040" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,6 @@
     <definedName name="RowTitleRegion1..E1">'wk 1 (20-22 Jan)'!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -207,7 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +261,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -315,14 +304,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -333,7 +334,7 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="165">
     <dxf>
       <font>
         <b val="0"/>
@@ -377,181 +378,6 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
@@ -577,83 +403,258 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2635,1401 +2636,1575 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4198,10 +4373,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="155"/>
-      <tableStyleElement type="headerRow" dxfId="154"/>
-      <tableStyleElement type="totalRow" dxfId="153"/>
-      <tableStyleElement type="firstRowStripe" dxfId="152"/>
+      <tableStyleElement type="wholeTable" dxfId="164"/>
+      <tableStyleElement type="headerRow" dxfId="163"/>
+      <tableStyleElement type="totalRow" dxfId="162"/>
+      <tableStyleElement type="firstRowStripe" dxfId="161"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4228,10 +4403,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="159" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="157" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4247,13 +4422,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C5BF689-7D67-4AAE-9936-6BF5F2752D67}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="120" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="3" dataCellStyle="Phone"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
     <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="1" dataCellStyle="Time"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="117" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4272,10 +4447,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="115" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="113" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4294,10 +4469,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="111" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="109" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4316,10 +4491,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="107" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="105" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4338,10 +4513,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="103" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="101" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4360,10 +4535,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="99" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="97" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4379,13 +4554,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{756CC06F-004D-48BE-B33B-097FC515D6F9}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="96"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
     <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="95"/>
     <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="93" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4401,7 +4576,7 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0FF695A-2671-454A-B9AC-3DB129595791}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="92"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
     <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="91"/>
@@ -4467,13 +4642,13 @@
   <autoFilter ref="K4:R15" xr:uid="{B7B8F908-8DC3-4258-8031-85AFC0EBB259}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F01FA980-845A-43DE-81ED-9339A1E6EEC8}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris" dataDxfId="156" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4712,10 +4887,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4926,16 +5101,20 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A02BAFB-504F-431B-A149-F6FB78B884AA}" name="Appointments5" displayName="Appointments5" ref="B4:I15" totalsRowShown="0">
-  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <colorFilter dxfId="147"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5F0995BE-F391-4B57-87DF-65C548CB18D5}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BA11EC77-4355-4978-BE05-46814D60DA77}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="138" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="136" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4954,10 +5133,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="134" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="133"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="132" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4974,12 +5153,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="139" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="130" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="128" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4996,12 +5175,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5018,12 +5197,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5039,13 +5218,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C01A3E17-F544-4C12-B883-EFFA13DC4405}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="124" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="121" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5383,7 +5562,7 @@
   </sheetPr>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5:Z15"/>
     </sheetView>
   </sheetViews>
@@ -5449,40 +5628,40 @@
     </row>
     <row r="2" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44946</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44947</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44948</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
@@ -5564,10 +5743,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -5575,10 +5755,11 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
@@ -5586,10 +5767,10 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="11"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
@@ -5599,10 +5780,11 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -5610,10 +5792,11 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
@@ -5621,10 +5804,10 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="15"/>
       <c r="W6" s="11"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
@@ -5634,10 +5817,11 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -5645,10 +5829,11 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
@@ -5656,10 +5841,10 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="15"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
@@ -5669,33 +5854,35 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="16"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
@@ -5704,33 +5891,35 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="16"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="16"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5739,33 +5928,35 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="16"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="16"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
@@ -5774,33 +5965,36 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="16"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
@@ -5809,10 +6003,11 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -5820,10 +6015,11 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
@@ -5831,10 +6027,11 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="15"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="12"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
@@ -5844,10 +6041,11 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -5855,10 +6053,11 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
@@ -5866,10 +6065,11 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="15"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
@@ -5879,10 +6079,11 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
@@ -5890,10 +6091,11 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
@@ -5901,10 +6103,10 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="15"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="12"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
@@ -5914,10 +6116,11 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -5925,10 +6128,11 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
@@ -5936,10 +6140,10 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="15"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="12"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
@@ -6015,8 +6219,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5:AR15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6153,88 +6357,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44949</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44950</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44951</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44952</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44953</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44954</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44955</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -6412,10 +6616,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -6423,10 +6628,11 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
@@ -6434,9 +6640,10 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="16"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
@@ -6444,9 +6651,10 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="4"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="15"/>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="12"/>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="5" t="s">
         <v>10</v>
@@ -6454,9 +6662,10 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="4"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="16"/>
       <c r="AP5" s="11"/>
-      <c r="AQ5" s="4"/>
+      <c r="AQ5" s="16"/>
       <c r="AR5" s="11"/>
       <c r="AS5" s="5" t="s">
         <v>10</v>
@@ -6464,20 +6673,22 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="16"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="16"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="12"/>
       <c r="BB5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="16"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="16"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="12"/>
       <c r="BK5" s="5" t="s">
         <v>10</v>
       </c>
@@ -6486,10 +6697,11 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -6497,10 +6709,11 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="12"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
@@ -6508,9 +6721,10 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="16"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
@@ -6518,9 +6732,10 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="4"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="15"/>
       <c r="AG6" s="12"/>
-      <c r="AH6" s="4"/>
+      <c r="AH6" s="12"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="5" t="s">
         <v>11</v>
@@ -6528,9 +6743,10 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AN6" s="4"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="16"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="4"/>
+      <c r="AQ6" s="16"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="5" t="s">
         <v>11</v>
@@ -6538,20 +6754,22 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="16"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="16"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="12"/>
       <c r="BB6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="16"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="16"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="12"/>
       <c r="BK6" s="5" t="s">
         <v>11</v>
       </c>
@@ -6560,10 +6778,11 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -6571,10 +6790,11 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
@@ -6582,9 +6802,10 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="16"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
@@ -6592,9 +6813,10 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="15"/>
       <c r="AG7" s="12"/>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="12"/>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="5" t="s">
         <v>12</v>
@@ -6602,9 +6824,10 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN7" s="4"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="16"/>
       <c r="AP7" s="11"/>
-      <c r="AQ7" s="4"/>
+      <c r="AQ7" s="16"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="5" t="s">
         <v>12</v>
@@ -6612,20 +6835,22 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="16"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="16"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="12"/>
       <c r="BB7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="16"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="16"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="12"/>
       <c r="BK7" s="5" t="s">
         <v>12</v>
       </c>
@@ -6634,72 +6859,79 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="16"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="16"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="4"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="15"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="16"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
       <c r="AJ8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="4"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="16"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="12"/>
       <c r="AS8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="16"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="16"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="12"/>
       <c r="BB8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="16"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="16"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="12"/>
       <c r="BK8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6708,72 +6940,79 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="16"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="15"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="16"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="16"/>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="16"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
       <c r="AJ9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="4"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="15"/>
       <c r="AP9" s="11"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="12"/>
       <c r="AS9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="16"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="16"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
       <c r="BB9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="16"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="16"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
       <c r="BK9" s="10" t="s">
         <v>19</v>
       </c>
@@ -6782,72 +7021,79 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="16"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="15"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="4"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="16"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="16"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
       <c r="AJ10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="4"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="15"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="12"/>
       <c r="AS10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="16"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="16"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
       <c r="BB10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="16"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="16"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="12"/>
       <c r="BK10" s="10" t="s">
         <v>24</v>
       </c>
@@ -6856,72 +7102,79 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="14"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="4"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="16"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="16"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
       <c r="AJ11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AN11" s="4"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="14"/>
       <c r="AP11" s="11"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="12"/>
       <c r="AS11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="16"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="16"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
       <c r="BB11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="16"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="16"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
       <c r="BK11" s="10" t="s">
         <v>20</v>
       </c>
@@ -6930,10 +7183,11 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -6941,10 +7195,11 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
@@ -6952,9 +7207,10 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="16"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="16"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
@@ -6962,9 +7218,10 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="4"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="16"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="4"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="10" t="s">
         <v>25</v>
@@ -6972,9 +7229,10 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AN12" s="4"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="16"/>
       <c r="AP12" s="11"/>
-      <c r="AQ12" s="4"/>
+      <c r="AQ12" s="14"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="10" t="s">
         <v>25</v>
@@ -6982,20 +7240,22 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="16"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="16"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
       <c r="BB12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="16"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="16"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
       <c r="BK12" s="10" t="s">
         <v>25</v>
       </c>
@@ -7004,10 +7264,11 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -7015,10 +7276,11 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
@@ -7026,9 +7288,10 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="16"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="16"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
@@ -7036,9 +7299,10 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE13" s="4"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="14"/>
       <c r="AG13" s="12"/>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="12"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="10" t="s">
         <v>21</v>
@@ -7046,9 +7310,10 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AN13" s="4"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="16"/>
       <c r="AP13" s="11"/>
-      <c r="AQ13" s="4"/>
+      <c r="AQ13" s="14"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="10" t="s">
         <v>21</v>
@@ -7056,20 +7321,22 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="16"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="16"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
       <c r="BB13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="16"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="16"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
       <c r="BK13" s="10" t="s">
         <v>21</v>
       </c>
@@ -7078,10 +7345,11 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
@@ -7089,10 +7357,11 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
@@ -7100,9 +7369,10 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="14"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="16"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
@@ -7110,9 +7380,10 @@
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AE14" s="4"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="14"/>
       <c r="AG14" s="12"/>
-      <c r="AH14" s="4"/>
+      <c r="AH14" s="12"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="10" t="s">
         <v>22</v>
@@ -7120,9 +7391,10 @@
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AN14" s="4"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="14"/>
       <c r="AP14" s="12"/>
-      <c r="AQ14" s="4"/>
+      <c r="AQ14" s="14"/>
       <c r="AR14" s="11"/>
       <c r="AS14" s="10" t="s">
         <v>22</v>
@@ -7130,20 +7402,22 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="16"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="16"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
       <c r="BB14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="16"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="16"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
       <c r="BK14" s="10" t="s">
         <v>22</v>
       </c>
@@ -7152,10 +7426,11 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -7163,10 +7438,11 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
@@ -7174,9 +7450,10 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="14"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="16"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
@@ -7184,9 +7461,10 @@
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE15" s="4"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="14"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="4"/>
+      <c r="AH15" s="12"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="10" t="s">
         <v>23</v>
@@ -7194,9 +7472,10 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN15" s="4"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="14"/>
       <c r="AP15" s="12"/>
-      <c r="AQ15" s="4"/>
+      <c r="AQ15" s="14"/>
       <c r="AR15" s="11"/>
       <c r="AS15" s="10" t="s">
         <v>23</v>
@@ -7204,9 +7483,10 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="16"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
-      <c r="AZ15" s="4"/>
+      <c r="AZ15" s="12"/>
       <c r="BA15" s="11"/>
       <c r="BB15" s="10" t="s">
         <v>23</v>
@@ -7214,9 +7494,10 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="16"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
-      <c r="BI15" s="4"/>
+      <c r="BI15" s="12"/>
       <c r="BJ15" s="11"/>
       <c r="BK15" s="10" t="s">
         <v>23</v>
@@ -7284,6 +7565,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -7292,15 +7579,8 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Phone Number in this column under this heading" sqref="D4 G4 M4 P4 V4 Y4 AE4 AH4 AN4 AQ4 AW4 AZ4 BF4 BI4" xr:uid="{5DFDE181-4F58-47DB-941F-50B6812D0D43}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Appointment in this column under this heading" sqref="C4 F4 L4 O4 U4 X4 AD4 AG4 AM4 AP4 AV4 AY4 BE4 BH4" xr:uid="{22207068-AA43-4A51-9244-A8225B6CB0C8}"/>
@@ -7336,8 +7616,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+    <sheetView showGridLines="0" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BJ5" sqref="BJ5:BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7474,88 +7754,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44956</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44957</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44958</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44959</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44960</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44961</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44962</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -7733,9 +8013,9 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -7743,6 +8023,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
@@ -7753,6 +8034,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="4"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
@@ -7763,6 +8045,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="4"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
@@ -7773,6 +8056,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AM5" s="11"/>
       <c r="AN5" s="4"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
@@ -7783,20 +8067,22 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="12"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="4"/>
-      <c r="BA5" s="16"/>
+      <c r="BA5" s="12"/>
       <c r="BB5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="12"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="4"/>
-      <c r="BJ5" s="16"/>
+      <c r="BJ5" s="12"/>
       <c r="BK5" s="5" t="s">
         <v>10</v>
       </c>
@@ -7805,9 +8091,9 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -7815,6 +8101,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="4"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
@@ -7825,6 +8112,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="4"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
@@ -7835,6 +8123,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="4"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
@@ -7845,6 +8134,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" s="11"/>
       <c r="AN6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
@@ -7855,20 +8145,22 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="12"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="4"/>
-      <c r="BA6" s="16"/>
+      <c r="BA6" s="12"/>
       <c r="BB6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="12"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="4"/>
-      <c r="BJ6" s="16"/>
+      <c r="BJ6" s="12"/>
       <c r="BK6" s="5" t="s">
         <v>11</v>
       </c>
@@ -7877,9 +8169,9 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -7887,6 +8179,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="4"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
@@ -7897,6 +8190,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="4"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
@@ -7907,6 +8201,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
@@ -7917,6 +8212,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" s="11"/>
       <c r="AN7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
@@ -7927,20 +8223,22 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="12"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="4"/>
-      <c r="BA7" s="16"/>
+      <c r="BA7" s="12"/>
       <c r="BB7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="12"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="4"/>
-      <c r="BJ7" s="16"/>
+      <c r="BJ7" s="12"/>
       <c r="BK7" s="5" t="s">
         <v>12</v>
       </c>
@@ -7949,70 +8247,76 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="4"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="16"/>
+      <c r="AI8" s="12"/>
       <c r="AJ8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="4"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="16"/>
+      <c r="AR8" s="12"/>
       <c r="AS8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="12"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="4"/>
-      <c r="BA8" s="16"/>
+      <c r="BA8" s="12"/>
       <c r="BB8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="12"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="4"/>
-      <c r="BJ8" s="16"/>
+      <c r="BJ8" s="12"/>
       <c r="BK8" s="5" t="s">
         <v>18</v>
       </c>
@@ -8021,70 +8325,76 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="U9" s="11"/>
       <c r="V9" s="4"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="16"/>
+      <c r="AI9" s="12"/>
       <c r="AJ9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="4"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="16"/>
+      <c r="AR9" s="12"/>
       <c r="AS9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="12"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="4"/>
-      <c r="BA9" s="16"/>
+      <c r="BA9" s="12"/>
       <c r="BB9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="12"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="4"/>
-      <c r="BJ9" s="16"/>
+      <c r="BJ9" s="12"/>
       <c r="BK9" s="10" t="s">
         <v>19</v>
       </c>
@@ -8093,70 +8403,76 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="4"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="4"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="16"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="16"/>
+      <c r="AI10" s="12"/>
       <c r="AJ10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
-      <c r="AR10" s="16"/>
+      <c r="AR10" s="12"/>
       <c r="AS10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="12"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="4"/>
-      <c r="BA10" s="16"/>
+      <c r="BA10" s="12"/>
       <c r="BB10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="12"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="4"/>
-      <c r="BJ10" s="16"/>
+      <c r="BJ10" s="12"/>
       <c r="BK10" s="10" t="s">
         <v>24</v>
       </c>
@@ -8165,70 +8481,76 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="4"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="V11" s="4"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="16"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="16"/>
+      <c r="AI11" s="12"/>
       <c r="AJ11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AM11" s="11"/>
       <c r="AN11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="16"/>
+      <c r="AR11" s="12"/>
       <c r="AS11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="12"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="4"/>
-      <c r="BA11" s="16"/>
+      <c r="BA11" s="12"/>
       <c r="BB11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="12"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="4"/>
-      <c r="BJ11" s="16"/>
+      <c r="BJ11" s="12"/>
       <c r="BK11" s="10" t="s">
         <v>20</v>
       </c>
@@ -8237,9 +8559,9 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -8247,6 +8569,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -8257,6 +8580,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="V12" s="4"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
@@ -8267,6 +8591,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
@@ -8277,6 +8602,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AM12" s="11"/>
       <c r="AN12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
@@ -8287,20 +8613,22 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="12"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="4"/>
-      <c r="BA12" s="16"/>
+      <c r="BA12" s="12"/>
       <c r="BB12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="12"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="4"/>
-      <c r="BJ12" s="16"/>
+      <c r="BJ12" s="12"/>
       <c r="BK12" s="10" t="s">
         <v>25</v>
       </c>
@@ -8309,9 +8637,9 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -8319,6 +8647,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -8329,6 +8658,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="V13" s="4"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
@@ -8339,6 +8669,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
@@ -8349,6 +8680,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AM13" s="11"/>
       <c r="AN13" s="4"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
@@ -8359,20 +8691,22 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="12"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="4"/>
-      <c r="BA13" s="16"/>
+      <c r="BA13" s="12"/>
       <c r="BB13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="12"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="4"/>
-      <c r="BJ13" s="16"/>
+      <c r="BJ13" s="12"/>
       <c r="BK13" s="10" t="s">
         <v>21</v>
       </c>
@@ -8383,7 +8717,6 @@
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
@@ -8431,6 +8764,7 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="12"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="4"/>
@@ -8441,6 +8775,7 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="12"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="4"/>
@@ -8455,7 +8790,6 @@
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -8503,6 +8837,7 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="12"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="4"/>
@@ -8513,6 +8848,7 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="12"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="4"/>
@@ -8583,6 +8919,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -8591,14 +8933,8 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Date in cell E1" sqref="B3:C3 I3 K3:L3 R3 T3:U3 AA3 AC3:AD3 AJ3 AL3:AM3 AS3 AU3:AV3 BB3 BD3:BE3 BK3" xr:uid="{AC64EEAC-9E57-4100-9123-E658D31DEDD9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in cell at right" sqref="D3 M3 V3 AE3 AN3 AW3 BF3" xr:uid="{55E261F7-A81E-436D-B859-185D742FAA05}"/>
@@ -8772,88 +9108,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44963</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44964</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44965</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44966</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44967</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44968</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44969</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -9804,6 +10140,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -9812,12 +10154,6 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{C256AD20-86C3-43AF-A157-F6F748ADAD93}"/>
@@ -9993,88 +10329,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44970</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44971</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44972</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44973</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44974</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44975</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44976</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -11025,6 +11361,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -11033,12 +11375,6 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{D3B88787-9666-4829-AF1B-AFD0BDE5ED0F}"/>
@@ -11214,88 +11550,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44977</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44978</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44979</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44980</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44981</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44982</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44983</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -12246,6 +12582,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -12254,12 +12596,6 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{5FAFC48E-2820-4639-899D-6240921BAB5B}"/>
@@ -12290,12 +12626,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12489,17 +12824,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12523,17 +12867,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E08F7-FD55-4242-880A-960F482306EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2F028-6777-6B4F-ABE3-EFF692A5C5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="560" windowWidth="23040" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="760" windowWidth="23040" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -353,6 +353,81 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
@@ -378,8 +453,283 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -403,6 +753,381 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
@@ -428,8 +1153,283 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -453,8 +1453,1033 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -511,104 +2536,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -655,209 +2588,217 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1328,184 +3269,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1628,509 +3394,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2255,1673 +3521,407 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4422,13 +4422,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C5BF689-7D67-4AAE-9936-6BF5F2752D67}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="120" dataCellStyle="Phone"/>
+    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="118" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="117" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="116" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="114" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4447,10 +4447,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="115" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="113" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="112" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="110" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4469,10 +4469,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="111" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="109" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="108" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="106" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4491,10 +4491,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="107" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="106"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="105" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="104" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="102" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4513,10 +4513,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="103" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="101" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="100" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="98" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4535,10 +4535,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="99" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="97" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="96" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="94" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4554,13 +4554,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{756CC06F-004D-48BE-B33B-097FC515D6F9}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="93"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="93" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="91" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4576,13 +4576,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0FF695A-2671-454A-B9AC-3DB129595791}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="88"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="86" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="84" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4601,10 +4601,10 @@
     <tableColumn id="2" xr3:uid="{C94180EE-1407-4985-8FC4-31B24FD20334}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C6273117-9D1B-4E78-A8BD-B9AFC0FEA4E0}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{28390446-140E-4C34-B6AE-CB73B4D47E90}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="87" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="85" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="82" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="80" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4623,10 +4623,10 @@
     <tableColumn id="2" xr3:uid="{DF5403CA-E344-4631-B2FA-F0E9C07A0B3B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0EB7220C-7400-44F1-9799-008E8292B142}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{55720B1D-3AF4-4697-ABB8-12D14E619F50}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="83" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="81" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="78" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="76" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4667,10 +4667,10 @@
     <tableColumn id="2" xr3:uid="{82E27544-CFE2-4FCB-929E-F38F8E8BCF72}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BFD43BAD-D695-4D65-8BF4-7FE074F6FAC6}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{386AB347-591A-4CC2-BE5A-89A3C4CE8B1D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="79" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="77" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="74" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="72" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4689,10 +4689,10 @@
     <tableColumn id="2" xr3:uid="{10F2AFDE-A8B8-4625-BAA7-CB80BAB19A74}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{7DECF3E4-30A3-41C2-9278-3705B2CF40DB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A5C5B894-258A-4E94-BB90-F0A974DB7A6C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="75" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="73" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="70" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="68" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4711,10 +4711,10 @@
     <tableColumn id="2" xr3:uid="{CE59DEA0-9236-4D4E-BE63-600CB1F2627F}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DF15F544-5901-4042-ACFC-62AA35048C59}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AA60B96D-C403-41BC-8BF3-726171B925D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="71" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="69" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="66" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="64" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4733,10 +4733,10 @@
     <tableColumn id="2" xr3:uid="{F7A4435C-F5DA-43E5-96E8-2666A7DE6C5D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{24037A76-A296-4FCD-B87D-C98A1655B019}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{DA68FFB9-CDF9-4FA8-9E7F-AC89FD09986A}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="67" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="65" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="62" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="60" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4755,10 +4755,10 @@
     <tableColumn id="2" xr3:uid="{2B89BE19-628C-43B9-9A4F-FD8692426C08}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{247E3465-550A-4E14-84D4-EA3481167E5A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{01C84747-0BDD-4DEF-AC61-87B11910F555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="63" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="61" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="58" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="56" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4777,10 +4777,10 @@
     <tableColumn id="2" xr3:uid="{7827D7BB-C78D-453E-A7F5-5EDDDECC7B77}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{34C52336-5EB3-4B4A-962F-0ABEECC6F20B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{385B235D-CDDC-4630-A31C-93CE09396031}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="59" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="57" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="54" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="52" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4799,10 +4799,10 @@
     <tableColumn id="2" xr3:uid="{CF15D9C0-1B5E-4D51-8CFD-9C9811ADAAB3}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{D775262F-5CAC-4E3B-B2A9-A86E78D2B760}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{77BECF23-AAE1-4FDE-B07B-1B5A963BF75D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="55" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="53" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="50" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="48" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4821,10 +4821,10 @@
     <tableColumn id="2" xr3:uid="{49FE5D61-7D29-4313-898A-830774DBD47A}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90EA046A-3464-4813-A515-441DB628E5D4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F68C3E9-22B1-412D-8561-CDB82609A974}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="51" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="49" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="46" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="44" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4843,10 +4843,10 @@
     <tableColumn id="2" xr3:uid="{03308F6F-7210-41F4-9A07-5979E98F17A9}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A6C76DF6-FD7A-4B5B-882F-1CB21320DF76}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{56992E42-B37C-4386-ADAA-6BFDC7965FFE}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="47" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="45" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="42" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="40" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4865,10 +4865,10 @@
     <tableColumn id="2" xr3:uid="{31480843-9B73-4338-93C3-7BD9399442EA}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A90BA791-6066-47FD-9350-3E02120E2D64}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C66952DF-A7AB-4652-9624-12AD4334047E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="43" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="41" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="38" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="36" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4909,10 +4909,10 @@
     <tableColumn id="2" xr3:uid="{54FD0529-ADCD-4B53-B89F-E86041948760}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90F149A0-726C-46FC-84B2-9F8DEBCD7A8A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A4E2FD44-3916-4E9E-8FA7-0FFE817BC883}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="39" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="37" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="34" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="32" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4931,10 +4931,10 @@
     <tableColumn id="2" xr3:uid="{EEA6CB8E-095C-4E58-9685-A72D229B6858}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{6DC39266-36A3-4946-8DCE-8B47BB9B4183}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A76FAE03-CD47-4F58-BAAA-E0B399383AAF}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="35" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="33" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="30" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="28" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4953,10 +4953,10 @@
     <tableColumn id="2" xr3:uid="{C0E329BF-1DCB-4D86-A33C-365B440B70E7}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{003F982F-BD88-4265-93AF-64094B13BDFB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{F89F2619-1757-4DDE-AFC6-B7187DA84CBB}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="31" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="29" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="26" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="24" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4975,10 +4975,10 @@
     <tableColumn id="2" xr3:uid="{64619660-65D6-4C45-BC25-67A7E10F3358}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EE17890D-92A4-4A8E-AF68-AD5B0E4DE02A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{B0DCC0DC-F3ED-48D9-8EBD-678B062883D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="27" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="25" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="22" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="20" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4997,10 +4997,10 @@
     <tableColumn id="2" xr3:uid="{443189F4-32D8-468C-9055-BDC7AD9CD990}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EBCEC7EE-23ED-4FAF-8B83-46D11C025580}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{E3B2AFF1-955C-47F4-B38F-D11790DB9CB7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="23" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="21" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="18" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="16" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5019,10 +5019,10 @@
     <tableColumn id="2" xr3:uid="{4D3D2ADB-B410-4BB3-92F0-5796EF387FD6}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BBB04EDB-D05B-42A2-BA84-AB8CFFF17C8C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{0B6B181D-59AF-48AE-B2F7-9B8848D9B577}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="19" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="17" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="14" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="12" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5041,10 +5041,10 @@
     <tableColumn id="2" xr3:uid="{CD5272FA-F49A-4BE8-948F-8EF3E3E7AE75}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{ECD03D01-EDB4-47B6-B1C9-690C5BC6DBEA}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{4AA58E18-12DB-4F38-8402-929EE81E6FBD}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="15" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="13" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="10" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="8" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5063,10 +5063,10 @@
     <tableColumn id="2" xr3:uid="{A2088134-3A7C-4DE9-B0F3-AA7574753BDE}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9521E4C5-7D16-40BD-8736-5774F4A03DE5}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C16241CE-FCD4-4B92-8C75-1E60871988FC}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="11" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="9" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="6" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="4" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5085,10 +5085,10 @@
     <tableColumn id="2" xr3:uid="{6123AA27-D3FE-4F54-B9D1-CC55C3AED696}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{3319C129-20F6-4D73-B7CB-5325839EC3B4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{BB0ADEA4-48EE-42C3-83CE-C03FE1EE6FA2}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="7" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="5" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="2" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="0" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5113,8 +5113,8 @@
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
     <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="146"/>
     <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="143" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5133,10 +5133,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="141" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="139" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5153,12 +5153,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="139" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="138" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="136" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="134" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5175,12 +5175,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="133" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="131" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="129" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5197,12 +5197,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="128" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5218,13 +5218,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C01A3E17-F544-4C12-B883-EFFA13DC4405}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="124" dataCellStyle="Phone"/>
+    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="123" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="121" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="121" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="119" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6220,7 +6220,7 @@
   <dimension ref="B1:BK17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6642,6 +6642,7 @@
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="16"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
@@ -6653,6 +6654,7 @@
       </c>
       <c r="AD5" s="11"/>
       <c r="AE5" s="15"/>
+      <c r="AF5" s="6"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="11"/>
@@ -6664,6 +6666,7 @@
       </c>
       <c r="AM5" s="11"/>
       <c r="AN5" s="16"/>
+      <c r="AO5" s="6"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="11"/>
@@ -6675,6 +6678,7 @@
       </c>
       <c r="AV5" s="16"/>
       <c r="AW5" s="4"/>
+      <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
       <c r="BA5" s="12"/>
@@ -6686,6 +6690,7 @@
       </c>
       <c r="BE5" s="16"/>
       <c r="BF5" s="4"/>
+      <c r="BG5" s="6"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="12"/>
@@ -6723,6 +6728,7 @@
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="16"/>
+      <c r="W6" s="12"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
@@ -6734,6 +6740,7 @@
       </c>
       <c r="AD6" s="11"/>
       <c r="AE6" s="15"/>
+      <c r="AF6" s="6"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="11"/>
@@ -6745,6 +6752,7 @@
       </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="16"/>
+      <c r="AO6" s="6"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="16"/>
       <c r="AR6" s="11"/>
@@ -6756,6 +6764,7 @@
       </c>
       <c r="AV6" s="16"/>
       <c r="AW6" s="4"/>
+      <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="6"/>
       <c r="BA6" s="12"/>
@@ -6767,6 +6776,7 @@
       </c>
       <c r="BE6" s="16"/>
       <c r="BF6" s="4"/>
+      <c r="BG6" s="6"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
@@ -6804,6 +6814,7 @@
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="16"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
@@ -6815,6 +6826,7 @@
       </c>
       <c r="AD7" s="11"/>
       <c r="AE7" s="15"/>
+      <c r="AF7" s="6"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="11"/>
@@ -6826,6 +6838,7 @@
       </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="16"/>
+      <c r="AO7" s="12"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="16"/>
       <c r="AR7" s="11"/>
@@ -6837,6 +6850,7 @@
       </c>
       <c r="AV7" s="16"/>
       <c r="AW7" s="4"/>
+      <c r="AX7" s="6"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="6"/>
       <c r="BA7" s="12"/>
@@ -6848,6 +6862,7 @@
       </c>
       <c r="BE7" s="16"/>
       <c r="BF7" s="4"/>
+      <c r="BG7" s="12"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="12"/>
@@ -6885,6 +6900,7 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="16"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
@@ -6896,6 +6912,7 @@
       </c>
       <c r="AD8" s="6"/>
       <c r="AE8" s="15"/>
+      <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
@@ -6907,6 +6924,7 @@
       </c>
       <c r="AM8" s="6"/>
       <c r="AN8" s="16"/>
+      <c r="AO8" s="12"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="12"/>
@@ -6918,6 +6936,7 @@
       </c>
       <c r="AV8" s="16"/>
       <c r="AW8" s="4"/>
+      <c r="AX8" s="12"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="12"/>
@@ -6929,6 +6948,7 @@
       </c>
       <c r="BE8" s="16"/>
       <c r="BF8" s="4"/>
+      <c r="BG8" s="12"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="12"/>
@@ -6966,6 +6986,7 @@
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="15"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
@@ -6977,6 +6998,7 @@
       </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="16"/>
+      <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
@@ -6988,6 +7010,7 @@
       </c>
       <c r="AM9" s="6"/>
       <c r="AN9" s="15"/>
+      <c r="AO9" s="12"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="12"/>
@@ -6999,6 +7022,7 @@
       </c>
       <c r="AV9" s="16"/>
       <c r="AW9" s="4"/>
+      <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
@@ -7010,6 +7034,7 @@
       </c>
       <c r="BE9" s="16"/>
       <c r="BF9" s="4"/>
+      <c r="BG9" s="12"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
       <c r="BJ9" s="12"/>
@@ -7047,6 +7072,7 @@
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="15"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="12"/>
@@ -7058,6 +7084,7 @@
       </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="16"/>
+      <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
@@ -7069,6 +7096,7 @@
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="15"/>
+      <c r="AO10" s="12"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="12"/>
@@ -7080,6 +7108,7 @@
       </c>
       <c r="AV10" s="16"/>
       <c r="AW10" s="4"/>
+      <c r="AX10" s="12"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
@@ -7091,6 +7120,7 @@
       </c>
       <c r="BE10" s="16"/>
       <c r="BF10" s="4"/>
+      <c r="BG10" s="12"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
       <c r="BJ10" s="12"/>
@@ -7128,6 +7158,7 @@
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="14"/>
+      <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="12"/>
@@ -7139,6 +7170,7 @@
       </c>
       <c r="AD11" s="11"/>
       <c r="AE11" s="16"/>
+      <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
@@ -7150,6 +7182,7 @@
       </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="14"/>
+      <c r="AO11" s="12"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="12"/>
@@ -7161,6 +7194,7 @@
       </c>
       <c r="AV11" s="16"/>
       <c r="AW11" s="4"/>
+      <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
@@ -7172,6 +7206,7 @@
       </c>
       <c r="BE11" s="16"/>
       <c r="BF11" s="4"/>
+      <c r="BG11" s="12"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="12"/>
       <c r="BJ11" s="12"/>
@@ -7209,6 +7244,7 @@
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="16"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="6"/>
@@ -7220,6 +7256,7 @@
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="16"/>
+      <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
       <c r="AI12" s="6"/>
@@ -7231,6 +7268,7 @@
       </c>
       <c r="AM12" s="11"/>
       <c r="AN12" s="16"/>
+      <c r="AO12" s="12"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="6"/>
@@ -7242,6 +7280,7 @@
       </c>
       <c r="AV12" s="16"/>
       <c r="AW12" s="4"/>
+      <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
@@ -7253,6 +7292,7 @@
       </c>
       <c r="BE12" s="16"/>
       <c r="BF12" s="4"/>
+      <c r="BG12" s="12"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="12"/>
       <c r="BJ12" s="12"/>
@@ -7290,6 +7330,7 @@
       </c>
       <c r="U13" s="11"/>
       <c r="V13" s="16"/>
+      <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="6"/>
@@ -7301,6 +7342,7 @@
       </c>
       <c r="AD13" s="11"/>
       <c r="AE13" s="14"/>
+      <c r="AF13" s="12"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
       <c r="AI13" s="6"/>
@@ -7312,6 +7354,7 @@
       </c>
       <c r="AM13" s="11"/>
       <c r="AN13" s="16"/>
+      <c r="AO13" s="12"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="14"/>
       <c r="AR13" s="6"/>
@@ -7323,6 +7366,7 @@
       </c>
       <c r="AV13" s="16"/>
       <c r="AW13" s="4"/>
+      <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
@@ -7334,6 +7378,7 @@
       </c>
       <c r="BE13" s="16"/>
       <c r="BF13" s="4"/>
+      <c r="BG13" s="12"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
@@ -7371,6 +7416,7 @@
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="14"/>
+      <c r="W14" s="11"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="11"/>
@@ -7382,6 +7428,7 @@
       </c>
       <c r="AD14" s="16"/>
       <c r="AE14" s="14"/>
+      <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
       <c r="AI14" s="11"/>
@@ -7393,6 +7440,7 @@
       </c>
       <c r="AM14" s="16"/>
       <c r="AN14" s="14"/>
+      <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="14"/>
       <c r="AR14" s="11"/>
@@ -7404,6 +7452,7 @@
       </c>
       <c r="AV14" s="16"/>
       <c r="AW14" s="4"/>
+      <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -7415,6 +7464,7 @@
       </c>
       <c r="BE14" s="16"/>
       <c r="BF14" s="4"/>
+      <c r="BG14" s="12"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
@@ -7452,6 +7502,7 @@
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="14"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="11"/>
@@ -7463,6 +7514,7 @@
       </c>
       <c r="AD15" s="16"/>
       <c r="AE15" s="14"/>
+      <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
       <c r="AI15" s="11"/>
@@ -7474,6 +7526,7 @@
       </c>
       <c r="AM15" s="16"/>
       <c r="AN15" s="14"/>
+      <c r="AO15" s="11"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="11"/>
@@ -7485,6 +7538,7 @@
       </c>
       <c r="AV15" s="16"/>
       <c r="AW15" s="4"/>
+      <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="11"/>
@@ -7496,6 +7550,7 @@
       </c>
       <c r="BE15" s="16"/>
       <c r="BF15" s="4"/>
+      <c r="BG15" s="12"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
       <c r="BJ15" s="11"/>
@@ -7565,12 +7620,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -7579,6 +7628,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
@@ -7616,8 +7671,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BJ5" sqref="BJ5:BJ15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8015,6 +8070,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="12"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
@@ -8025,6 +8081,7 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="4"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="11"/>
@@ -8036,6 +8093,7 @@
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="4"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="11"/>
@@ -8047,6 +8105,7 @@
       </c>
       <c r="AD5" s="11"/>
       <c r="AE5" s="4"/>
+      <c r="AF5" s="11"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="11"/>
@@ -8058,6 +8117,7 @@
       </c>
       <c r="AM5" s="11"/>
       <c r="AN5" s="4"/>
+      <c r="AO5" s="12"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="11"/>
@@ -8069,6 +8129,7 @@
       </c>
       <c r="AV5" s="12"/>
       <c r="AW5" s="4"/>
+      <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="12"/>
@@ -8080,6 +8141,7 @@
       </c>
       <c r="BE5" s="12"/>
       <c r="BF5" s="4"/>
+      <c r="BG5" s="6"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="4"/>
       <c r="BJ5" s="12"/>
@@ -8093,6 +8155,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="12"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
@@ -8103,6 +8166,7 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="4"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="11"/>
@@ -8114,6 +8178,7 @@
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="4"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="11"/>
@@ -8125,6 +8190,7 @@
       </c>
       <c r="AD6" s="11"/>
       <c r="AE6" s="4"/>
+      <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="11"/>
@@ -8136,6 +8202,7 @@
       </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="4"/>
+      <c r="AO6" s="12"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="11"/>
@@ -8147,6 +8214,7 @@
       </c>
       <c r="AV6" s="12"/>
       <c r="AW6" s="4"/>
+      <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="12"/>
@@ -8158,6 +8226,7 @@
       </c>
       <c r="BE6" s="12"/>
       <c r="BF6" s="4"/>
+      <c r="BG6" s="6"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="4"/>
       <c r="BJ6" s="12"/>
@@ -8171,6 +8240,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
@@ -8181,6 +8251,7 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="4"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="11"/>
@@ -8192,6 +8263,7 @@
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="4"/>
+      <c r="W7" s="6"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="11"/>
@@ -8203,6 +8275,7 @@
       </c>
       <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
+      <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="11"/>
@@ -8214,6 +8287,7 @@
       </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="4"/>
+      <c r="AO7" s="12"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="11"/>
@@ -8225,6 +8299,7 @@
       </c>
       <c r="AV7" s="12"/>
       <c r="AW7" s="4"/>
+      <c r="AX7" s="6"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="12"/>
@@ -8236,6 +8311,7 @@
       </c>
       <c r="BE7" s="12"/>
       <c r="BF7" s="4"/>
+      <c r="BG7" s="6"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="4"/>
       <c r="BJ7" s="12"/>
@@ -8249,6 +8325,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
@@ -8259,6 +8336,7 @@
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="4"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="12"/>
@@ -8270,6 +8348,7 @@
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="4"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="12"/>
@@ -8281,6 +8360,7 @@
       </c>
       <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
+      <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="12"/>
@@ -8292,6 +8372,7 @@
       </c>
       <c r="AM8" s="6"/>
       <c r="AN8" s="4"/>
+      <c r="AO8" s="12"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="12"/>
@@ -8303,6 +8384,7 @@
       </c>
       <c r="AV8" s="12"/>
       <c r="AW8" s="4"/>
+      <c r="AX8" s="12"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="4"/>
       <c r="BA8" s="12"/>
@@ -8314,6 +8396,7 @@
       </c>
       <c r="BE8" s="12"/>
       <c r="BF8" s="4"/>
+      <c r="BG8" s="12"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="12"/>
@@ -8327,6 +8410,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
@@ -8337,6 +8421,7 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="4"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="12"/>
@@ -8348,6 +8433,7 @@
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="12"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="12"/>
@@ -8359,6 +8445,7 @@
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
+      <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="12"/>
@@ -8370,6 +8457,7 @@
       </c>
       <c r="AM9" s="6"/>
       <c r="AN9" s="4"/>
+      <c r="AO9" s="12"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="12"/>
@@ -8381,6 +8469,7 @@
       </c>
       <c r="AV9" s="12"/>
       <c r="AW9" s="4"/>
+      <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="12"/>
@@ -8392,6 +8481,7 @@
       </c>
       <c r="BE9" s="12"/>
       <c r="BF9" s="4"/>
+      <c r="BG9" s="12"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="4"/>
       <c r="BJ9" s="12"/>
@@ -8405,6 +8495,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="4"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
@@ -8415,6 +8506,7 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="4"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="12"/>
@@ -8426,6 +8518,7 @@
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="4"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="12"/>
@@ -8437,6 +8530,7 @@
       </c>
       <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
+      <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="12"/>
@@ -8448,6 +8542,7 @@
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="4"/>
+      <c r="AO10" s="6"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="12"/>
@@ -8459,6 +8554,7 @@
       </c>
       <c r="AV10" s="12"/>
       <c r="AW10" s="4"/>
+      <c r="AX10" s="12"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="12"/>
@@ -8470,6 +8566,7 @@
       </c>
       <c r="BE10" s="12"/>
       <c r="BF10" s="4"/>
+      <c r="BG10" s="12"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="4"/>
       <c r="BJ10" s="12"/>
@@ -8483,6 +8580,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="4"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
@@ -8493,6 +8591,7 @@
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="4"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="12"/>
@@ -8504,6 +8603,7 @@
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="4"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="12"/>
@@ -8515,6 +8615,7 @@
       </c>
       <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
+      <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="12"/>
@@ -8526,6 +8627,7 @@
       </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="4"/>
+      <c r="AO11" s="6"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="12"/>
@@ -8537,6 +8639,7 @@
       </c>
       <c r="AV11" s="12"/>
       <c r="AW11" s="4"/>
+      <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="12"/>
@@ -8548,6 +8651,7 @@
       </c>
       <c r="BE11" s="12"/>
       <c r="BF11" s="4"/>
+      <c r="BG11" s="12"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="4"/>
       <c r="BJ11" s="12"/>
@@ -8561,6 +8665,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="4"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
@@ -8571,6 +8676,7 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="4"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="6"/>
@@ -8582,6 +8688,7 @@
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="4"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="6"/>
@@ -8593,6 +8700,7 @@
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
+      <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="6"/>
@@ -8604,6 +8712,7 @@
       </c>
       <c r="AM12" s="11"/>
       <c r="AN12" s="4"/>
+      <c r="AO12" s="6"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="6"/>
@@ -8615,6 +8724,7 @@
       </c>
       <c r="AV12" s="12"/>
       <c r="AW12" s="4"/>
+      <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="12"/>
@@ -8626,6 +8736,7 @@
       </c>
       <c r="BE12" s="12"/>
       <c r="BF12" s="4"/>
+      <c r="BG12" s="12"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="4"/>
       <c r="BJ12" s="12"/>
@@ -8639,6 +8750,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="4"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
@@ -8649,6 +8761,7 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="6"/>
@@ -8660,6 +8773,7 @@
       </c>
       <c r="U13" s="11"/>
       <c r="V13" s="4"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="6"/>
@@ -8671,6 +8785,7 @@
       </c>
       <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
+      <c r="AF13" s="6"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="6"/>
@@ -8682,6 +8797,7 @@
       </c>
       <c r="AM13" s="11"/>
       <c r="AN13" s="4"/>
+      <c r="AO13" s="6"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="6"/>
@@ -8693,6 +8809,7 @@
       </c>
       <c r="AV13" s="12"/>
       <c r="AW13" s="4"/>
+      <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="12"/>
@@ -8704,6 +8821,7 @@
       </c>
       <c r="BE13" s="12"/>
       <c r="BF13" s="4"/>
+      <c r="BG13" s="12"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="4"/>
       <c r="BJ13" s="12"/>
@@ -8716,6 +8834,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="4"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
@@ -8725,6 +8844,7 @@
         <v>11</v>
       </c>
       <c r="M14" s="4"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="11"/>
@@ -8735,6 +8855,7 @@
         <v>11</v>
       </c>
       <c r="V14" s="4"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="11"/>
@@ -8745,6 +8866,7 @@
         <v>11</v>
       </c>
       <c r="AE14" s="4"/>
+      <c r="AF14" s="6"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="11"/>
@@ -8755,6 +8877,7 @@
         <v>11</v>
       </c>
       <c r="AN14" s="4"/>
+      <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="11"/>
@@ -8766,6 +8889,7 @@
       </c>
       <c r="AV14" s="12"/>
       <c r="AW14" s="4"/>
+      <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="11"/>
@@ -8777,6 +8901,7 @@
       </c>
       <c r="BE14" s="12"/>
       <c r="BF14" s="4"/>
+      <c r="BG14" s="11"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="4"/>
       <c r="BJ14" s="11"/>
@@ -8789,6 +8914,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="4"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
@@ -8798,6 +8924,7 @@
         <v>12</v>
       </c>
       <c r="M15" s="4"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="11"/>
@@ -8808,6 +8935,7 @@
         <v>12</v>
       </c>
       <c r="V15" s="4"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="11"/>
@@ -8818,6 +8946,7 @@
         <v>12</v>
       </c>
       <c r="AE15" s="4"/>
+      <c r="AF15" s="6"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="11"/>
@@ -8828,6 +8957,7 @@
         <v>12</v>
       </c>
       <c r="AN15" s="4"/>
+      <c r="AO15" s="11"/>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="11"/>
@@ -8839,6 +8969,7 @@
       </c>
       <c r="AV15" s="12"/>
       <c r="AW15" s="4"/>
+      <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="11"/>
@@ -8850,6 +8981,7 @@
       </c>
       <c r="BE15" s="12"/>
       <c r="BF15" s="4"/>
+      <c r="BG15" s="11"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="11"/>
@@ -8919,12 +9051,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -8933,6 +9059,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
@@ -10140,12 +10272,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -10154,6 +10280,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{C256AD20-86C3-43AF-A157-F6F748ADAD93}"/>
@@ -11361,12 +11493,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -11375,6 +11501,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{D3B88787-9666-4829-AF1B-AFD0BDE5ED0F}"/>
@@ -12582,12 +12714,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -12596,6 +12722,12 @@
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{5FAFC48E-2820-4639-899D-6240921BAB5B}"/>
@@ -12626,11 +12758,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12824,26 +12957,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12867,9 +12991,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Daily calendar.xlsx
+++ b/Daily calendar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C72C4A3-A60B-784F-BD4A-CDD9C1D4C08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E08F7-FD55-4242-880A-960F482306EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="-21180" windowWidth="27200" windowHeight="17700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="560" windowWidth="23040" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk 1 (20-22 Jan)" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,6 @@
     <definedName name="RowTitleRegion1..E1">'wk 1 (20-22 Jan)'!$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -207,7 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +261,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -315,6 +304,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -330,82 +334,7 @@
     <cellStyle name="Time" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="156">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="165">
     <dxf>
       <font>
         <b val="0"/>
@@ -449,83 +378,283 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2474,1559 +2603,1608 @@
         <scheme val="minor"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4195,10 +4373,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Daily Appointment Calendar" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Daily Appointment Calendar" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="155"/>
-      <tableStyleElement type="headerRow" dxfId="154"/>
-      <tableStyleElement type="totalRow" dxfId="153"/>
-      <tableStyleElement type="firstRowStripe" dxfId="152"/>
+      <tableStyleElement type="wholeTable" dxfId="164"/>
+      <tableStyleElement type="headerRow" dxfId="163"/>
+      <tableStyleElement type="totalRow" dxfId="162"/>
+      <tableStyleElement type="firstRowStripe" dxfId="161"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4225,10 +4403,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="149"/>
-    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{9D17AAE6-FB8C-4478-A34D-2A51B6628A71}" name="Oksana" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{A9C8FF4C-AD28-4094-882D-B25729BB2D4B}" name="Yash" dataDxfId="159" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C328F71A-BA70-4E02-9707-7A3FCE2EED0B}" name="Shin" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{F9054911-3417-4C55-A57F-3697BCFB4591}" name="Singapore time _x000a_(UTC+8)" dataDxfId="157" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4244,13 +4422,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C5BF689-7D67-4AAE-9936-6BF5F2752D67}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{CF6C4F92-C8BF-4216-8625-48CE0829E21D}" name="Chris" dataDxfId="120" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{82F93066-79A2-4BDD-86AC-57C0EA7C996B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{1AC0FEC9-DD89-4B28-82F3-9DD705AA970C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="114" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="112" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{EA5E7E24-5DE4-4CCC-8A86-B8199725346B}" name="Oksana" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{DF234A86-F25C-42D8-BC0F-F984E484C9BE}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E153EC59-EC37-4ED1-887B-2680986E3BE3}" name="Shin" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D548D9A8-FE15-481F-BAC8-E7E1A689769D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="117" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4269,10 +4447,10 @@
     <tableColumn id="2" xr3:uid="{B7245837-75B6-40F6-AE7D-D3147CBB4F87}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0227EB22-FBA5-4E00-B420-6E3AA6812851}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5945C855-578A-4D8D-944D-C61D3FB10AE3}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="110" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="108" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A1254AFE-F15E-44F5-970B-A69AE37BB049}" name="Oksana" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{3DBDA2FB-1ACD-4847-BD1F-DED3A5311D2A}" name="Yash" dataDxfId="115" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{C27AE526-2FCF-4366-ADC8-A03CA42351A2}" name="Shin" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{3AD44161-07BC-4F4F-8850-513526468727}" name="Singapore time _x000a_(UTC+8)" dataDxfId="113" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4291,10 +4469,10 @@
     <tableColumn id="2" xr3:uid="{F9476C72-12A2-4616-8745-CE1978BCDE37}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{605B05E6-A0A4-4C17-996F-2C24B0A0EDF1}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E3CCE41-1A68-47E6-9FCC-C605E201F2D8}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="106" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="105"/>
-    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="104" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C4C29526-C137-4E18-B95A-6753FE3D47B6}" name="Oksana" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{4F2132BE-0CFB-451C-9EC1-E1506E6918A5}" name="Yash" dataDxfId="111" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{0FAD427F-9DA9-48B5-8567-DAC6D21995E5}" name="Shin" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{4456E27B-B965-460D-9037-A4D3B8DCF119}" name="Singapore time _x000a_(UTC+8)" dataDxfId="109" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4313,10 +4491,10 @@
     <tableColumn id="2" xr3:uid="{510FAB12-05D2-477C-A3C3-F37BC0D1851C}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{84C89E58-AF96-4486-932D-9F1C4010D50B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{47B8EDD7-F35D-4B15-9091-5425488CF46B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="102" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="100" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{F601B36D-7341-43F2-B007-B083A9D0329C}" name="Oksana" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{4D49D71A-C32F-4F3F-8515-BA31AEF1394C}" name="Yash" dataDxfId="107" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E013925A-04D8-46D2-BE99-29E01AD91823}" name="Shin" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{DF2927E0-7C17-4982-BE5A-2678659A22F3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="105" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4335,10 +4513,10 @@
     <tableColumn id="2" xr3:uid="{464B2BCB-9679-42C2-9103-E4610117969B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A8C2F686-2137-4906-8BFB-848AE2307D9C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{806D0D0D-AC1F-462A-9F4B-94E4E1DD514B}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="98" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="96" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{A993B93A-4341-42BF-9918-AD32E8382EA2}" name="Oksana" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{0E4E00EC-A3D2-4412-8607-4219225E982F}" name="Yash" dataDxfId="103" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DA298704-D4AD-445F-8647-B6D82D739125}" name="Shin" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{6A2F49DA-4B3D-4DCC-9ED2-AA1F33D967E1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="101" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4357,10 +4535,10 @@
     <tableColumn id="2" xr3:uid="{E62278F0-D422-41EB-9CB6-100D78481378}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{CAAFC571-90B0-4B0A-8425-47421A7E9F6D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E87BB05-1B47-411C-ADEA-06B419597655}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="92" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0CE0193C-A28C-4558-A6A7-97F61603E3D2}" name="Oksana" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{47608488-1168-4893-9FF9-847FEFA029E1}" name="Yash" dataDxfId="99" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{89DBE63A-BD01-43C8-8BD2-EBEA0E9D01FF}" name="Shin" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{20AC23B9-1AB5-4F2B-A645-9929067A416C}" name="Singapore time _x000a_(UTC+8)" dataDxfId="97" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4376,13 +4554,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{756CC06F-004D-48BE-B33B-097FC515D6F9}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{C41E7B5D-7252-48C5-92AE-F4C9A5741939}" name="Chris" dataDxfId="96"/>
     <tableColumn id="5" xr3:uid="{5C1CF51E-ECB1-43F0-8611-C38DD733FD23}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6A604927-2DD8-4470-94BF-226096022555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="88" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{CE0BB656-2D23-4E40-B245-7A1AE8DA1632}" name="Oksana" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{499C007B-9FA5-48E9-A6D5-944362D7B91E}" name="Yash" dataDxfId="94" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E7E773A3-740E-4A98-9F17-4842D6E68C4C}" name="Shin" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{108A5692-38FA-4F33-B18F-274CA90DE133}" name="Singapore time _x000a_(UTC+8)" dataDxfId="93" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4398,13 +4576,13 @@
   <autoFilter ref="BD4:BK15" xr:uid="{707CDBD8-D281-48AD-9748-CFABFDC2BE62}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0FF695A-2671-454A-B9AC-3DB129595791}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{A11049C4-7018-4D8E-BC51-A794BBEAEEE1}" name="Chris" dataDxfId="92"/>
     <tableColumn id="5" xr3:uid="{9A185BA7-BAEE-4A54-B676-09149B4DC0EC}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{5E2A4213-5435-4F61-AD75-83035A00BD7D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="86" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="84" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{14E9FC16-87B1-4424-8FAE-2A8DD9D6FBDE}" name="Oksana" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{4A2ED4EB-19D6-4E1A-BCB1-8B8397946FB4}" name="Yash" dataDxfId="90" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{25796ACD-B417-4E4C-9718-41BFF812AA95}" name="Shin" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{02B95CB9-1BBF-4310-9F74-06FE84DA5A57}" name="Singapore time _x000a_(UTC+8)" dataDxfId="89" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4423,10 +4601,10 @@
     <tableColumn id="2" xr3:uid="{C94180EE-1407-4985-8FC4-31B24FD20334}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{C6273117-9D1B-4E78-A8BD-B9AFC0FEA4E0}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{28390446-140E-4C34-B6AE-CB73B4D47E90}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="82" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="80" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{FD0B3E24-96C6-47B4-A820-98020DBBFAC7}" name="Oksana" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{83E5024B-18C2-4A58-86BF-B200FFC47B78}" name="Yash" dataDxfId="87" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A8ED67B9-0069-4A4F-8052-ED45553EB363}" name="Shin" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{EAB26DA3-5EE8-4111-B78D-21F5E77834DB}" name="Singapore time _x000a_(UTC+8)" dataDxfId="85" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4445,10 +4623,10 @@
     <tableColumn id="2" xr3:uid="{DF5403CA-E344-4631-B2FA-F0E9C07A0B3B}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{0EB7220C-7400-44F1-9799-008E8292B142}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{55720B1D-3AF4-4697-ABB8-12D14E619F50}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="78" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="76" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{619A8323-E827-45C2-8BBB-2DAB2D84B741}" name="Oksana" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{40089D03-ABBB-455D-8A9C-76669438AF35}" name="Yash" dataDxfId="83" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CB8A3181-E2AD-4973-B632-C290C4479585}" name="Shin" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{5C7E95F3-0CD5-4B70-979F-B8A1F6972DE0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="81" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4464,13 +4642,13 @@
   <autoFilter ref="K4:R15" xr:uid="{B7B8F908-8DC3-4258-8031-85AFC0EBB259}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F01FA980-845A-43DE-81ED-9339A1E6EEC8}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{3CED8CBC-F4AC-49B2-9A54-297054A0F480}" name="Chris" dataDxfId="156" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{C7966841-5D56-4560-B855-DB423787778D}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{16892C88-044A-4B79-9E9B-AA99ECEA9839}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="146" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4AC31AC3-11DD-4459-B8E3-0380683F4CDD}" name="Oksana" dataDxfId="155"/>
+    <tableColumn id="4" xr3:uid="{E30A469A-C8B5-4182-84F5-622E27AB688A}" name="Yash" dataDxfId="154" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D4CE159E-DDA2-4C33-94DC-D058D61EF160}" name="Shin" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{B85528E1-B988-4A02-BE0E-E3B35841EEED}" name="Singapore time _x000a_(UTC+8)" dataDxfId="152" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4489,10 +4667,10 @@
     <tableColumn id="2" xr3:uid="{82E27544-CFE2-4FCB-929E-F38F8E8BCF72}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BFD43BAD-D695-4D65-8BF4-7FE074F6FAC6}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{386AB347-591A-4CC2-BE5A-89A3C4CE8B1D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="74" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="72" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E6DDB61B-6B43-4504-A1C5-DA6B43C1D082}" name="Oksana" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{9FD46C37-9846-49E5-A4C7-2A1813746D11}" name="Yash" dataDxfId="79" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3B39D51D-17AB-4B8A-89C0-ED0B5445547E}" name="Shin" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{501A922D-1D2C-40B3-86FE-C23504129690}" name="Singapore time _x000a_(UTC+8)" dataDxfId="77" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4511,10 +4689,10 @@
     <tableColumn id="2" xr3:uid="{10F2AFDE-A8B8-4625-BAA7-CB80BAB19A74}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{7DECF3E4-30A3-41C2-9278-3705B2CF40DB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A5C5B894-258A-4E94-BB90-F0A974DB7A6C}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="70" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="68" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B81A327C-68A3-4773-BCB7-505D23236337}" name="Oksana" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{05CDC919-66B1-4DCB-9E59-D282BFF82DFD}" name="Yash" dataDxfId="75" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2BF937E2-1A8F-4DBC-AE66-C7B9F04F6957}" name="Shin" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{7967EBDF-91AA-4661-BD61-A04BE29D5B1A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="73" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4533,10 +4711,10 @@
     <tableColumn id="2" xr3:uid="{CE59DEA0-9236-4D4E-BE63-600CB1F2627F}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DF15F544-5901-4042-ACFC-62AA35048C59}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AA60B96D-C403-41BC-8BF3-726171B925D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="66" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="64" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8083B1D9-9EDE-4795-B8A5-F395FBE27404}" name="Oksana" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{9D8165AB-2615-4455-8332-2335EFC1A04C}" name="Yash" dataDxfId="71" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{76C34ED5-F333-44D4-A7B9-F005365DE0CE}" name="Shin" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{24C9FD46-13BE-4710-9948-40B8717FF3D7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="69" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4555,10 +4733,10 @@
     <tableColumn id="2" xr3:uid="{F7A4435C-F5DA-43E5-96E8-2666A7DE6C5D}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{24037A76-A296-4FCD-B87D-C98A1655B019}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{DA68FFB9-CDF9-4FA8-9E7F-AC89FD09986A}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="62" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="60" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{0E104BBD-58A0-4A88-8980-00CBDB96C899}" name="Oksana" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{D9A092F1-2821-4B0D-BD9B-DB93139DD4A0}" name="Yash" dataDxfId="67" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{799D8249-8B89-4BFF-8AE3-BB05393B0F0E}" name="Shin" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{0A5E0F8B-DAFF-410A-A6E8-9CF9E04C85F8}" name="Singapore time _x000a_(UTC+8)" dataDxfId="65" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4577,10 +4755,10 @@
     <tableColumn id="2" xr3:uid="{2B89BE19-628C-43B9-9A4F-FD8692426C08}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{247E3465-550A-4E14-84D4-EA3481167E5A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{01C84747-0BDD-4DEF-AC61-87B11910F555}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="58" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="56" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{63A0F4AF-ACE9-4A7E-AA1D-E34EC58D7679}" name="Oksana" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{FC1C9F78-1715-44A7-B437-8B393BC9B7D3}" name="Yash" dataDxfId="63" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2B97574E-727C-47AB-9679-1A526BF57566}" name="Shin" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{5339B706-4BF0-4D38-9C15-B0A8B2D88B13}" name="Singapore time _x000a_(UTC+8)" dataDxfId="61" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4599,10 +4777,10 @@
     <tableColumn id="2" xr3:uid="{7827D7BB-C78D-453E-A7F5-5EDDDECC7B77}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{34C52336-5EB3-4B4A-962F-0ABEECC6F20B}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{385B235D-CDDC-4630-A31C-93CE09396031}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="54" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="52" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{30828DC7-BDD1-4CFE-B4F0-D1D92018E809}" name="Oksana" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{1A42C202-FF37-4F9F-A497-1036B9FF987A}" name="Yash" dataDxfId="59" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{CA61A775-4A1F-46BF-B978-84391BC86856}" name="Shin" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{945CC8DC-9DF2-469C-9476-132642485561}" name="Singapore time _x000a_(UTC+8)" dataDxfId="57" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4621,10 +4799,10 @@
     <tableColumn id="2" xr3:uid="{CF15D9C0-1B5E-4D51-8CFD-9C9811ADAAB3}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{D775262F-5CAC-4E3B-B2A9-A86E78D2B760}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{77BECF23-AAE1-4FDE-B07B-1B5A963BF75D}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="50" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="48" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B7D3DFDA-4EDC-4D44-9EF4-1D6976EA519C}" name="Oksana" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{6F23ECFE-BE6C-4222-8DCB-BD7C28236252}" name="Yash" dataDxfId="55" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{798A1FB7-892F-4CD7-B1E0-CFB789B7ADE7}" name="Shin" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{5B8E069F-A14B-4129-A3DA-182C7B74AB91}" name="Singapore time _x000a_(UTC+8)" dataDxfId="53" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4643,10 +4821,10 @@
     <tableColumn id="2" xr3:uid="{49FE5D61-7D29-4313-898A-830774DBD47A}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90EA046A-3464-4813-A515-441DB628E5D4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F68C3E9-22B1-412D-8561-CDB82609A974}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="46" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="44" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{997243AE-D74A-468F-BC45-E976BEF8E58D}" name="Oksana" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{E20EBAD6-A4C1-423C-9283-4E0C3BDA1350}" name="Yash" dataDxfId="51" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{966F6989-E79C-4EB4-B552-1CC87CF07D43}" name="Shin" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{181BB4EE-E469-4446-B202-B7A4812E9037}" name="Singapore time _x000a_(UTC+8)" dataDxfId="49" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4665,10 +4843,10 @@
     <tableColumn id="2" xr3:uid="{03308F6F-7210-41F4-9A07-5979E98F17A9}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A6C76DF6-FD7A-4B5B-882F-1CB21320DF76}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{56992E42-B37C-4386-ADAA-6BFDC7965FFE}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="42" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="40" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5BA72103-0DCF-431E-BCDD-9671DC826774}" name="Oksana" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{021FBF7B-FB9D-418B-BABE-9F92D500EBC1}" name="Yash" dataDxfId="47" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{31928D4D-A400-43CB-A70B-9F9DABB5CC2F}" name="Shin" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{9CB24077-D37D-4C75-8756-CC9A92113D24}" name="Singapore time _x000a_(UTC+8)" dataDxfId="45" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4687,10 +4865,10 @@
     <tableColumn id="2" xr3:uid="{31480843-9B73-4338-93C3-7BD9399442EA}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{A90BA791-6066-47FD-9350-3E02120E2D64}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C66952DF-A7AB-4652-9624-12AD4334047E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="38" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="36" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3FC00AFD-60E2-415C-A416-108DAAE42808}" name="Oksana" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{0D4E04DE-C8CC-43D7-A815-179E184D113B}" name="Yash" dataDxfId="43" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{E51FD00D-B5CE-4D91-861D-48A1B0745A3C}" name="Shin" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{8F6CE992-6306-4E87-A620-8A02203F8239}" name="Singapore time _x000a_(UTC+8)" dataDxfId="41" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4709,10 +4887,10 @@
     <tableColumn id="2" xr3:uid="{4C022EB9-B856-46FA-8BCB-4AAFADB436D0}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{DB5C6103-1EB3-4D87-BCCD-B1449ACB0627}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{958629D4-4202-4E10-A49C-029FA13BC2B5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="141"/>
-    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2E82CE34-D49B-43F6-A410-04D08B4D4A6D}" name="Oksana" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{A5222911-A295-4CB4-B323-FEAF8437E8BE}" name="Yash" dataDxfId="150" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{DD866F41-4DA9-430E-90BA-EE9D619A80A0}" name="Shin" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{62BE29B6-6643-43DA-A5D7-7DA544D19372}" name="Singapore time _x000a_(UTC+8)" dataDxfId="148" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4731,10 +4909,10 @@
     <tableColumn id="2" xr3:uid="{54FD0529-ADCD-4B53-B89F-E86041948760}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{90F149A0-726C-46FC-84B2-9F8DEBCD7A8A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A4E2FD44-3916-4E9E-8FA7-0FFE817BC883}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="34" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="32" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{06A7359E-3492-4A46-A918-245234F01777}" name="Oksana" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{E7837638-3B4F-4E05-8AB9-D3E2A4CEE16D}" name="Yash" dataDxfId="39" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{A02E9D25-A3F7-419D-B22E-AB47BDDA1820}" name="Shin" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{A2D2FFF8-7AE7-4A5A-B8F4-0BB9750B3F80}" name="Singapore time _x000a_(UTC+8)" dataDxfId="37" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4753,10 +4931,10 @@
     <tableColumn id="2" xr3:uid="{EEA6CB8E-095C-4E58-9685-A72D229B6858}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{6DC39266-36A3-4946-8DCE-8B47BB9B4183}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A76FAE03-CD47-4F58-BAAA-E0B399383AAF}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="30" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="28" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D1745B88-2A19-4C36-8376-5D7554546772}" name="Oksana" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{B606433D-ED39-4EA8-B1F3-D99C37D328F4}" name="Yash" dataDxfId="35" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{9F53371F-710F-47AE-B351-1E775BE55F61}" name="Shin" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{ADD98C06-1826-4DE0-AEA5-DB7B683D012A}" name="Singapore time _x000a_(UTC+8)" dataDxfId="33" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4775,10 +4953,10 @@
     <tableColumn id="2" xr3:uid="{C0E329BF-1DCB-4D86-A33C-365B440B70E7}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{003F982F-BD88-4265-93AF-64094B13BDFB}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{F89F2619-1757-4DDE-AFC6-B7187DA84CBB}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="26" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="24" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{AAC4B066-8416-45EE-B03C-810F350FD500}" name="Oksana" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{99851EA6-3B00-42BA-BA64-2C6BADB94400}" name="Yash" dataDxfId="31" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{443DF852-C91E-4BAF-A7AF-30CA8C46D5C1}" name="Shin" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{66E96285-11C2-4BC0-B1C5-37FE887C6CA0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="29" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4797,10 +4975,10 @@
     <tableColumn id="2" xr3:uid="{64619660-65D6-4C45-BC25-67A7E10F3358}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EE17890D-92A4-4A8E-AF68-AD5B0E4DE02A}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{B0DCC0DC-F3ED-48D9-8EBD-678B062883D7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="22" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="20" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{4E5BC969-05EA-45B7-BEED-39380C81156B}" name="Oksana" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{E996A125-351B-4D4B-B633-729E72E94692}" name="Yash" dataDxfId="27" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{09825810-304A-4FB8-854B-0DF218A934B4}" name="Shin" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{29ADBCC6-6218-4EE5-A99E-0A7C46223547}" name="Singapore time _x000a_(UTC+8)" dataDxfId="25" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4819,10 +4997,10 @@
     <tableColumn id="2" xr3:uid="{443189F4-32D8-468C-9055-BDC7AD9CD990}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{EBCEC7EE-23ED-4FAF-8B83-46D11C025580}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{E3B2AFF1-955C-47F4-B38F-D11790DB9CB7}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="18" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="16" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{D83852B9-BEDE-41D1-A364-1CBB8FD746D0}" name="Oksana" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{714DE460-DD0B-472B-B461-8DC5E402A1A7}" name="Yash" dataDxfId="23" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{B14AD5A6-80B6-437A-AE2B-23C39AA1D815}" name="Shin" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{FFE787F0-213E-4544-99EB-6744043A39EF}" name="Singapore time _x000a_(UTC+8)" dataDxfId="21" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4841,10 +5019,10 @@
     <tableColumn id="2" xr3:uid="{4D3D2ADB-B410-4BB3-92F0-5796EF387FD6}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BBB04EDB-D05B-42A2-BA84-AB8CFFF17C8C}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{0B6B181D-59AF-48AE-B2F7-9B8848D9B577}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="14" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="12" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{2EBD93C7-4EE1-43BA-A143-49BA390F2A4D}" name="Oksana" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{E9EEED46-6A74-4194-9603-D11216CEA4C8}" name="Yash" dataDxfId="19" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3E3816D0-F57B-4BAA-8AB3-7E9236C67E78}" name="Shin" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{1FD3A54C-3F10-42D9-8255-0E9C2E4E3E5D}" name="Singapore time _x000a_(UTC+8)" dataDxfId="17" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4863,10 +5041,10 @@
     <tableColumn id="2" xr3:uid="{CD5272FA-F49A-4BE8-948F-8EF3E3E7AE75}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{ECD03D01-EDB4-47B6-B1C9-690C5BC6DBEA}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{4AA58E18-12DB-4F38-8402-929EE81E6FBD}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="10" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="8" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{8ADC5D84-1E94-4A8E-A0E4-CFA2F146D0E0}" name="Oksana" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{368999B6-116C-45B1-BE5E-2FD396AB7CD3}" name="Yash" dataDxfId="15" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{4EDC2545-0024-49C6-995B-A3D7551C9993}" name="Shin" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{63CFD507-E60C-4990-93F5-FC7969499501}" name="Singapore time _x000a_(UTC+8)" dataDxfId="13" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4885,10 +5063,10 @@
     <tableColumn id="2" xr3:uid="{A2088134-3A7C-4DE9-B0F3-AA7574753BDE}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{9521E4C5-7D16-40BD-8736-5774F4A03DE5}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{C16241CE-FCD4-4B92-8C75-1E60871988FC}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="6" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="4" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{296FFE1F-244D-40AD-9291-90D8E9BABD74}" name="Oksana" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F37EF47C-EF59-4BB4-A588-29A733234107}" name="Yash" dataDxfId="11" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{47AF080C-B200-418C-A6A1-DE7112B3A6DB}" name="Shin" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{4F617619-63D0-41E6-806E-7FCB193CCCB0}" name="Singapore time _x000a_(UTC+8)" dataDxfId="9" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4907,10 +5085,10 @@
     <tableColumn id="2" xr3:uid="{6123AA27-D3FE-4F54-B9D1-CC55C3AED696}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{3319C129-20F6-4D73-B7CB-5325839EC3B4}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{BB0ADEA4-48EE-42C3-83CE-C03FE1EE6FA2}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="2" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="0" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{3E057A32-8FB7-438D-81C8-A3FE2889B2DA}" name="Oksana" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{29D199E5-C26D-4981-8C4C-2020018BFFA6}" name="Yash" dataDxfId="7" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{FEA767D2-6ECD-4223-9090-04E9534496AB}" name="Shin" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8E9B045C-3723-42B7-B771-DEAF62D133F1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="5" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4923,16 +5101,20 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4A02BAFB-504F-431B-A149-F6FB78B884AA}" name="Appointments5" displayName="Appointments5" ref="B4:I15" totalsRowShown="0">
-  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="B4:I15" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <colorFilter dxfId="147"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5F0995BE-F391-4B57-87DF-65C548CB18D5}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{B3B0EC76-43B2-457F-BE1F-16BCD92A0D96}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{BA11EC77-4355-4978-BE05-46814D60DA77}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{A84BCF49-9E56-4C72-8815-8A724C6ECB76}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="138" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="136" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{607AD4AD-2437-49C7-8259-CFCAA36C68C7}" name="Oksana" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{78094C5E-5AAC-4AD0-A02D-C65615C6F3DB}" name="Yash" dataDxfId="145" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{106D26EF-FA57-428B-A6D5-030C928FE171}" name="Shin" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B0FF0E58-6A04-47FA-A1A3-19FE4EF1B69E}" name="Singapore time _x000a_(UTC+8)" dataDxfId="144" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4951,10 +5133,10 @@
     <tableColumn id="2" xr3:uid="{F4DCFEB0-95A0-40D6-BD6B-AF2B99525AA8}" name="Chris"/>
     <tableColumn id="5" xr3:uid="{781764E6-E4AA-495B-B236-C628D15D5461}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{AB9BB1D3-1E78-4987-BDBA-2C92F62A218E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="134" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="133"/>
-    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="132" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{E0C104D4-001A-4F55-A83A-ADCF203F1055}" name="Oksana" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{79809C09-32E2-4926-8909-6F58AF319FB5}" name="Yash" dataDxfId="142" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{291A8DB2-E1F0-413D-8D3A-ECAA328E3313}" name="Shin" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{86192AE1-B5B3-467E-A226-C43BFA134AA4}" name="Singapore time _x000a_(UTC+8)" dataDxfId="140" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4971,12 +5153,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AFD8CEE-156D-4ABC-B384-928CF651B6AD}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C12F197-B393-41F7-BE8B-70E939BC436F}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{7268AD0F-E73D-4840-87A1-84AE9AB98952}" name="Dom" dataDxfId="139" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{CC9C32B8-AD75-4B6B-9E0D-BD84F9B6E326}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="130" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="128" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{B407F25D-3B70-4EA2-838A-E0762855D8DC}" name="Oksana" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{CED30464-2526-473F-9F46-5CBC8D0325C1}" name="Yash" dataDxfId="137" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{243E3DD0-DC7C-4880-B1AB-214F1CD8CF64}" name="Shin" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{A7B5023C-E854-4502-8A5F-1CD0597412C3}" name="Singapore time _x000a_(UTC+8)" dataDxfId="135" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4993,12 +5175,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0F5ED816-7237-48FB-89C5-529C9F9E206E}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{7C79677E-C8AC-4F1C-967C-1C44B093572A}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{A36C43A9-6454-4BE5-AB45-B19CB31E0D37}" name="Dom" dataDxfId="134" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{2AE833C0-5922-4AFD-A44F-5A7037E2E287}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="126" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="124" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{171C9E84-7179-4AC1-BEA0-3D0278AC8F40}" name="Oksana" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{D7EB1D36-7FF1-400C-B987-B289DAECEF7C}" name="Yash" dataDxfId="132" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{2D1217D5-2902-47EC-B52C-40CD7EBCDF00}" name="Shin" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{A2ACC072-6C71-423E-B040-38E53AB5BA33}" name="Singapore time _x000a_(UTC+8)" dataDxfId="130" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5015,12 +5197,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00A12453-B640-4475-B6A2-960B89B26633}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
     <tableColumn id="2" xr3:uid="{5D48B011-E5EE-47BF-B5B0-BF8C8357A2A5}" name="Chris"/>
-    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataCellStyle="Phone"/>
+    <tableColumn id="5" xr3:uid="{95894411-2418-4579-86A6-175EBD884D6E}" name="Dom" dataDxfId="129" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{90E6CFA1-354F-406E-9CB8-742306D418C5}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="120" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{5F04F278-C00A-4CB5-B21C-86DECAB44F7D}" name="Oksana" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{7F4DB685-C7E8-4287-8440-485BB3DCC370}" name="Yash" dataDxfId="127" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{3565CB8E-322E-4086-8C5B-1E1BFB91B9B6}" name="Shin" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{94FB360C-7BA2-488D-9271-D76AF5BC7FD7}" name="Singapore time _x000a_(UTC+8)" dataDxfId="125" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5036,13 +5218,13 @@
   <autoFilter ref="AU4:BB15" xr:uid="{F2E6E4BE-88D7-4ED5-A548-41DCDB5D5BA0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C01A3E17-F544-4C12-B883-EFFA13DC4405}" name="UK Time _x000a_(UTC)" dataCellStyle="Time"/>
-    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris"/>
+    <tableColumn id="2" xr3:uid="{5BAA5CC5-149B-4353-B284-4AD89F136006}" name="Chris" dataDxfId="124" dataCellStyle="Phone"/>
     <tableColumn id="5" xr3:uid="{B675EEAE-3EE4-4916-B6A7-CBAF0A1AA217}" name="Dom" dataCellStyle="Phone"/>
     <tableColumn id="7" xr3:uid="{6F0297EA-A99C-4D0D-87D7-31E429E1395E}" name="Irina"/>
-    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="118" dataCellStyle="Phone"/>
-    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="116" dataCellStyle="Time"/>
+    <tableColumn id="3" xr3:uid="{C55965D9-E79A-43D9-AEDD-0520AEDAB7CF}" name="Oksana" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{B1080426-3D4E-4EFB-8291-9AC031D3B4C7}" name="Yash" dataDxfId="122" dataCellStyle="Phone"/>
+    <tableColumn id="6" xr3:uid="{D578F166-E98B-4304-A703-861BB2124419}" name="Shin" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8FE165A0-3692-4866-A3A4-3184BE58E8C1}" name="Singapore time _x000a_(UTC+8)" dataDxfId="121" dataCellStyle="Time"/>
   </tableColumns>
   <tableStyleInfo name="Daily Appointment Calendar" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5380,7 +5562,7 @@
   </sheetPr>
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Z5" sqref="Z5:Z15"/>
     </sheetView>
   </sheetViews>
@@ -5446,40 +5628,40 @@
     </row>
     <row r="2" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44946</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44947</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44948</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
@@ -5561,10 +5743,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -5572,10 +5755,11 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
@@ -5583,10 +5767,10 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="11"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
@@ -5596,10 +5780,11 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -5607,10 +5792,11 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
@@ -5618,10 +5804,10 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="15"/>
       <c r="W6" s="11"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
@@ -5631,10 +5817,11 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -5642,10 +5829,11 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
@@ -5653,10 +5841,10 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="15"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
@@ -5666,10 +5854,11 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
@@ -5677,10 +5866,11 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
@@ -5688,10 +5878,10 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
@@ -5701,10 +5891,11 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
@@ -5712,10 +5903,11 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
@@ -5723,10 +5915,10 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
@@ -5736,10 +5928,11 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
@@ -5747,10 +5940,11 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
@@ -5758,10 +5952,10 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="4"/>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
@@ -5771,10 +5965,11 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
@@ -5782,10 +5977,11 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
@@ -5793,10 +5989,11 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
@@ -5806,10 +6003,11 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -5817,10 +6015,11 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
@@ -5828,10 +6027,11 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="15"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="12"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
@@ -5841,10 +6041,11 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -5852,10 +6053,11 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="6"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
@@ -5863,10 +6065,11 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="15"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
@@ -5876,10 +6079,11 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
@@ -5887,10 +6091,11 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="6"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
@@ -5898,10 +6103,10 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="15"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="12"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
@@ -5911,10 +6116,11 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -5922,10 +6128,11 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="6"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
@@ -5933,10 +6140,10 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="15"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="12"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
@@ -6012,8 +6219,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5:AR15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6150,88 +6357,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44949</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44950</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44951</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44952</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44953</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44954</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44955</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -6409,10 +6616,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -6420,10 +6628,11 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="5" t="s">
         <v>10</v>
@@ -6431,9 +6640,10 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="4"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="16"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="5" t="s">
         <v>10</v>
@@ -6441,9 +6651,10 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="4"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="15"/>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="12"/>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="5" t="s">
         <v>10</v>
@@ -6451,9 +6662,10 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="4"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="16"/>
       <c r="AP5" s="11"/>
-      <c r="AQ5" s="4"/>
+      <c r="AQ5" s="16"/>
       <c r="AR5" s="11"/>
       <c r="AS5" s="5" t="s">
         <v>10</v>
@@ -6461,9 +6673,10 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="16"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
+      <c r="AZ5" s="6"/>
       <c r="BA5" s="12"/>
       <c r="BB5" s="5" t="s">
         <v>10</v>
@@ -6471,9 +6684,10 @@
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="16"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
-      <c r="BI5" s="4"/>
+      <c r="BI5" s="6"/>
       <c r="BJ5" s="12"/>
       <c r="BK5" s="5" t="s">
         <v>10</v>
@@ -6483,10 +6697,11 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -6494,10 +6709,11 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="12"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="5" t="s">
         <v>11</v>
@@ -6505,9 +6721,10 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="16"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="5" t="s">
         <v>11</v>
@@ -6515,9 +6732,10 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="4"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="15"/>
       <c r="AG6" s="12"/>
-      <c r="AH6" s="4"/>
+      <c r="AH6" s="12"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="5" t="s">
         <v>11</v>
@@ -6525,9 +6743,10 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AN6" s="4"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="16"/>
       <c r="AP6" s="11"/>
-      <c r="AQ6" s="4"/>
+      <c r="AQ6" s="16"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="5" t="s">
         <v>11</v>
@@ -6535,9 +6754,10 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="16"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
+      <c r="AZ6" s="6"/>
       <c r="BA6" s="12"/>
       <c r="BB6" s="5" t="s">
         <v>11</v>
@@ -6545,9 +6765,10 @@
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="16"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
-      <c r="BI6" s="4"/>
+      <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
       <c r="BK6" s="5" t="s">
         <v>11</v>
@@ -6557,10 +6778,11 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -6568,10 +6790,11 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="5" t="s">
         <v>12</v>
@@ -6579,9 +6802,10 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="16"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="5" t="s">
         <v>12</v>
@@ -6589,9 +6813,10 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="4"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="15"/>
       <c r="AG7" s="12"/>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="12"/>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="5" t="s">
         <v>12</v>
@@ -6599,9 +6824,10 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN7" s="4"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="16"/>
       <c r="AP7" s="11"/>
-      <c r="AQ7" s="4"/>
+      <c r="AQ7" s="16"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="5" t="s">
         <v>12</v>
@@ -6609,9 +6835,10 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="16"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
-      <c r="AZ7" s="4"/>
+      <c r="AZ7" s="6"/>
       <c r="BA7" s="12"/>
       <c r="BB7" s="5" t="s">
         <v>12</v>
@@ -6619,9 +6846,10 @@
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="16"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
-      <c r="BI7" s="4"/>
+      <c r="BI7" s="6"/>
       <c r="BJ7" s="12"/>
       <c r="BK7" s="5" t="s">
         <v>12</v>
@@ -6631,10 +6859,11 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
@@ -6642,10 +6871,11 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>18</v>
@@ -6653,9 +6883,10 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="16"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="5" t="s">
         <v>18</v>
@@ -6663,9 +6894,10 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="4"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="15"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="4"/>
+      <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="5" t="s">
         <v>18</v>
@@ -6673,9 +6905,10 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="4"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="16"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="4"/>
+      <c r="AQ8" s="16"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="5" t="s">
         <v>18</v>
@@ -6683,9 +6916,10 @@
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="16"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
-      <c r="AZ8" s="4"/>
+      <c r="AZ8" s="6"/>
       <c r="BA8" s="12"/>
       <c r="BB8" s="5" t="s">
         <v>18</v>
@@ -6693,9 +6927,10 @@
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="16"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
-      <c r="BI8" s="4"/>
+      <c r="BI8" s="6"/>
       <c r="BJ8" s="12"/>
       <c r="BK8" s="5" t="s">
         <v>18</v>
@@ -6705,10 +6940,11 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
@@ -6716,10 +6952,11 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="10" t="s">
         <v>19</v>
@@ -6727,9 +6964,10 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="15"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="10" t="s">
         <v>19</v>
@@ -6737,9 +6975,10 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="16"/>
       <c r="AG9" s="12"/>
-      <c r="AH9" s="4"/>
+      <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="10" t="s">
         <v>19</v>
@@ -6747,9 +6986,10 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="4"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="15"/>
       <c r="AP9" s="11"/>
-      <c r="AQ9" s="4"/>
+      <c r="AQ9" s="16"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="10" t="s">
         <v>19</v>
@@ -6757,9 +6997,10 @@
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="16"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
-      <c r="AZ9" s="4"/>
+      <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="10" t="s">
         <v>19</v>
@@ -6767,9 +7008,10 @@
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="16"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
-      <c r="BI9" s="4"/>
+      <c r="BI9" s="12"/>
       <c r="BJ9" s="12"/>
       <c r="BK9" s="10" t="s">
         <v>19</v>
@@ -6779,10 +7021,11 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
@@ -6790,10 +7033,11 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="10" t="s">
         <v>24</v>
@@ -6801,9 +7045,10 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="15"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="4"/>
+      <c r="Y10" s="16"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="10" t="s">
         <v>24</v>
@@ -6811,9 +7056,10 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="4"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="16"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="4"/>
+      <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="10" t="s">
         <v>24</v>
@@ -6821,9 +7067,10 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="4"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="15"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="4"/>
+      <c r="AQ10" s="16"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="10" t="s">
         <v>24</v>
@@ -6831,9 +7078,10 @@
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="16"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
-      <c r="AZ10" s="4"/>
+      <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="10" t="s">
         <v>24</v>
@@ -6841,9 +7089,10 @@
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="16"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
-      <c r="BI10" s="4"/>
+      <c r="BI10" s="12"/>
       <c r="BJ10" s="12"/>
       <c r="BK10" s="10" t="s">
         <v>24</v>
@@ -6853,10 +7102,11 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
@@ -6864,10 +7114,11 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
@@ -6875,9 +7126,10 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="14"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="16"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="10" t="s">
         <v>20</v>
@@ -6885,9 +7137,10 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE11" s="4"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="16"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="4"/>
+      <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10" t="s">
         <v>20</v>
@@ -6895,9 +7148,10 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AN11" s="4"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="14"/>
       <c r="AP11" s="11"/>
-      <c r="AQ11" s="4"/>
+      <c r="AQ11" s="16"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="10" t="s">
         <v>20</v>
@@ -6905,9 +7159,10 @@
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="16"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
-      <c r="AZ11" s="4"/>
+      <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="10" t="s">
         <v>20</v>
@@ -6915,9 +7170,10 @@
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="16"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
-      <c r="BI11" s="4"/>
+      <c r="BI11" s="12"/>
       <c r="BJ11" s="12"/>
       <c r="BK11" s="10" t="s">
         <v>20</v>
@@ -6927,10 +7183,11 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -6938,10 +7195,11 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="12"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="10" t="s">
         <v>25</v>
@@ -6949,9 +7207,10 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="16"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="16"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="10" t="s">
         <v>25</v>
@@ -6959,9 +7218,10 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="4"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="16"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="4"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="10" t="s">
         <v>25</v>
@@ -6969,9 +7229,10 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AN12" s="4"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="16"/>
       <c r="AP12" s="11"/>
-      <c r="AQ12" s="4"/>
+      <c r="AQ12" s="14"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="10" t="s">
         <v>25</v>
@@ -6979,9 +7240,10 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="16"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
-      <c r="AZ12" s="4"/>
+      <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="10" t="s">
         <v>25</v>
@@ -6989,9 +7251,10 @@
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="16"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
-      <c r="BI12" s="4"/>
+      <c r="BI12" s="12"/>
       <c r="BJ12" s="12"/>
       <c r="BK12" s="10" t="s">
         <v>25</v>
@@ -7001,10 +7264,11 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -7012,10 +7276,11 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="10" t="s">
         <v>21</v>
@@ -7023,9 +7288,10 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="4"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="16"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="16"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="10" t="s">
         <v>21</v>
@@ -7033,9 +7299,10 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE13" s="4"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="14"/>
       <c r="AG13" s="12"/>
-      <c r="AH13" s="4"/>
+      <c r="AH13" s="12"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="10" t="s">
         <v>21</v>
@@ -7043,9 +7310,10 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AN13" s="4"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="16"/>
       <c r="AP13" s="11"/>
-      <c r="AQ13" s="4"/>
+      <c r="AQ13" s="14"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="10" t="s">
         <v>21</v>
@@ -7053,9 +7321,10 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="16"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
-      <c r="AZ13" s="4"/>
+      <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="10" t="s">
         <v>21</v>
@@ -7063,9 +7332,10 @@
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="16"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
-      <c r="BI13" s="4"/>
+      <c r="BI13" s="12"/>
       <c r="BJ13" s="12"/>
       <c r="BK13" s="10" t="s">
         <v>21</v>
@@ -7075,10 +7345,11 @@
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
@@ -7086,10 +7357,11 @@
       <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="12"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10" t="s">
         <v>22</v>
@@ -7097,9 +7369,10 @@
       <c r="T14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="14"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="16"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
@@ -7107,9 +7380,10 @@
       <c r="AC14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AE14" s="4"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="14"/>
       <c r="AG14" s="12"/>
-      <c r="AH14" s="4"/>
+      <c r="AH14" s="12"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="10" t="s">
         <v>22</v>
@@ -7117,9 +7391,10 @@
       <c r="AL14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AN14" s="4"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="14"/>
       <c r="AP14" s="12"/>
-      <c r="AQ14" s="4"/>
+      <c r="AQ14" s="14"/>
       <c r="AR14" s="11"/>
       <c r="AS14" s="10" t="s">
         <v>22</v>
@@ -7127,9 +7402,10 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="16"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
-      <c r="AZ14" s="4"/>
+      <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
       <c r="BB14" s="10" t="s">
         <v>22</v>
@@ -7137,9 +7413,10 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="16"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
-      <c r="BI14" s="4"/>
+      <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
       <c r="BK14" s="10" t="s">
         <v>22</v>
@@ -7149,10 +7426,11 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -7160,10 +7438,11 @@
       <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
         <v>23</v>
@@ -7171,9 +7450,10 @@
       <c r="T15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="4"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="14"/>
       <c r="X15" s="12"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="16"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="10" t="s">
         <v>23</v>
@@ -7181,9 +7461,10 @@
       <c r="AC15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE15" s="4"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="14"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="4"/>
+      <c r="AH15" s="12"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="10" t="s">
         <v>23</v>
@@ -7191,9 +7472,10 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN15" s="4"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="14"/>
       <c r="AP15" s="12"/>
-      <c r="AQ15" s="4"/>
+      <c r="AQ15" s="14"/>
       <c r="AR15" s="11"/>
       <c r="AS15" s="10" t="s">
         <v>23</v>
@@ -7201,9 +7483,10 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="16"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
-      <c r="AZ15" s="4"/>
+      <c r="AZ15" s="12"/>
       <c r="BA15" s="11"/>
       <c r="BB15" s="10" t="s">
         <v>23</v>
@@ -7211,9 +7494,10 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="16"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
-      <c r="BI15" s="4"/>
+      <c r="BI15" s="12"/>
       <c r="BJ15" s="11"/>
       <c r="BK15" s="10" t="s">
         <v>23</v>
@@ -7296,8 +7580,7 @@
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="E4 H4 N4 Q4 W4 Z4 AF4 AI4 AO4 AR4 AX4 BA4 BG4 BJ4" xr:uid="{277197B0-7949-4A5D-BABB-94B0331D06DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Phone Number in this column under this heading" sqref="D4 G4 M4 P4 V4 Y4 AE4 AH4 AN4 AQ4 AW4 AZ4 BF4 BI4" xr:uid="{5DFDE181-4F58-47DB-941F-50B6812D0D43}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Appointment in this column under this heading" sqref="C4 F4 L4 O4 U4 X4 AD4 AG4 AM4 AP4 AV4 AY4 BE4 BH4" xr:uid="{22207068-AA43-4A51-9244-A8225B6CB0C8}"/>
@@ -7333,8 +7616,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5:AR14"/>
+    <sheetView showGridLines="0" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BJ5" sqref="BJ5:BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7471,88 +7754,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44956</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44957</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44958</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44959</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44960</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44961</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44962</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -7730,9 +8013,9 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="11"/>
       <c r="I5" s="5" t="s">
         <v>10</v>
@@ -7740,6 +8023,7 @@
       <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="4"/>
       <c r="O5" s="11"/>
       <c r="P5" s="4"/>
@@ -7750,6 +8034,7 @@
       <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="4"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="4"/>
@@ -7760,6 +8045,7 @@
       <c r="AC5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="4"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="4"/>
@@ -7770,6 +8056,7 @@
       <c r="AL5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AM5" s="11"/>
       <c r="AN5" s="4"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="4"/>
@@ -7780,6 +8067,7 @@
       <c r="AU5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="AV5" s="12"/>
       <c r="AW5" s="4"/>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="4"/>
@@ -7790,6 +8078,7 @@
       <c r="BD5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="BE5" s="12"/>
       <c r="BF5" s="4"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="4"/>
@@ -7802,9 +8091,9 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="4"/>
       <c r="H6" s="11"/>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -7812,6 +8101,7 @@
       <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="4"/>
       <c r="O6" s="11"/>
       <c r="P6" s="4"/>
@@ -7822,6 +8112,7 @@
       <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="4"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="4"/>
@@ -7832,6 +8123,7 @@
       <c r="AC6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="4"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="4"/>
@@ -7842,6 +8134,7 @@
       <c r="AL6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" s="11"/>
       <c r="AN6" s="4"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="4"/>
@@ -7852,6 +8145,7 @@
       <c r="AU6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AV6" s="12"/>
       <c r="AW6" s="4"/>
       <c r="AY6" s="6"/>
       <c r="AZ6" s="4"/>
@@ -7862,6 +8156,7 @@
       <c r="BD6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" s="12"/>
       <c r="BF6" s="4"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="4"/>
@@ -7874,9 +8169,9 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -7884,6 +8179,7 @@
       <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="4"/>
       <c r="O7" s="11"/>
       <c r="P7" s="4"/>
@@ -7894,6 +8190,7 @@
       <c r="T7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="V7" s="4"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="4"/>
@@ -7904,6 +8201,7 @@
       <c r="AC7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="4"/>
@@ -7914,6 +8212,7 @@
       <c r="AL7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" s="11"/>
       <c r="AN7" s="4"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="4"/>
@@ -7924,6 +8223,7 @@
       <c r="AU7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AV7" s="12"/>
       <c r="AW7" s="4"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="4"/>
@@ -7934,6 +8234,7 @@
       <c r="BD7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="BE7" s="12"/>
       <c r="BF7" s="4"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="4"/>
@@ -7946,9 +8247,9 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
       <c r="H8" s="12"/>
       <c r="I8" s="5" t="s">
         <v>18</v>
@@ -7956,6 +8257,7 @@
       <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
       <c r="O8" s="11"/>
       <c r="P8" s="4"/>
@@ -7966,6 +8268,7 @@
       <c r="T8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="4"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="4"/>
@@ -7976,6 +8279,7 @@
       <c r="AC8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="4"/>
@@ -7986,6 +8290,7 @@
       <c r="AL8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AM8" s="6"/>
       <c r="AN8" s="4"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="4"/>
@@ -7996,6 +8301,7 @@
       <c r="AU8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AV8" s="12"/>
       <c r="AW8" s="4"/>
       <c r="AY8" s="12"/>
       <c r="AZ8" s="4"/>
@@ -8006,6 +8312,7 @@
       <c r="BD8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="BE8" s="12"/>
       <c r="BF8" s="4"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="4"/>
@@ -8018,9 +8325,9 @@
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
       <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>19</v>
@@ -8028,6 +8335,7 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
       <c r="O9" s="11"/>
       <c r="P9" s="4"/>
@@ -8038,6 +8346,7 @@
       <c r="T9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="U9" s="11"/>
       <c r="V9" s="4"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="4"/>
@@ -8048,6 +8357,7 @@
       <c r="AC9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="4"/>
@@ -8058,6 +8368,7 @@
       <c r="AL9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="4"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="4"/>
@@ -8068,6 +8379,7 @@
       <c r="AU9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="AV9" s="12"/>
       <c r="AW9" s="4"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="4"/>
@@ -8078,6 +8390,7 @@
       <c r="BD9" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="BE9" s="12"/>
       <c r="BF9" s="4"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="4"/>
@@ -8090,9 +8403,9 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="4"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="4"/>
       <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>24</v>
@@ -8100,6 +8413,7 @@
       <c r="K10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="4"/>
       <c r="O10" s="11"/>
       <c r="P10" s="4"/>
@@ -8110,6 +8424,7 @@
       <c r="T10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="4"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="4"/>
@@ -8120,6 +8435,7 @@
       <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="4"/>
@@ -8130,6 +8446,7 @@
       <c r="AL10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AM10" s="11"/>
       <c r="AN10" s="4"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="4"/>
@@ -8140,6 +8457,7 @@
       <c r="AU10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="AV10" s="12"/>
       <c r="AW10" s="4"/>
       <c r="AY10" s="12"/>
       <c r="AZ10" s="4"/>
@@ -8150,6 +8468,7 @@
       <c r="BD10" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="12"/>
       <c r="BF10" s="4"/>
       <c r="BH10" s="12"/>
       <c r="BI10" s="4"/>
@@ -8162,9 +8481,9 @@
       <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="4"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
       <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>20</v>
@@ -8172,6 +8491,7 @@
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="4"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
@@ -8182,6 +8502,7 @@
       <c r="T11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="V11" s="4"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="4"/>
@@ -8192,6 +8513,7 @@
       <c r="AC11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="4"/>
@@ -8202,6 +8524,7 @@
       <c r="AL11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AM11" s="11"/>
       <c r="AN11" s="4"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="4"/>
@@ -8212,6 +8535,7 @@
       <c r="AU11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="AV11" s="12"/>
       <c r="AW11" s="4"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="4"/>
@@ -8222,6 +8546,7 @@
       <c r="BD11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="BE11" s="12"/>
       <c r="BF11" s="4"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="4"/>
@@ -8234,9 +8559,9 @@
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="4"/>
       <c r="H12" s="6"/>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -8244,6 +8569,7 @@
       <c r="K12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="4"/>
       <c r="O12" s="11"/>
       <c r="P12" s="4"/>
@@ -8254,6 +8580,7 @@
       <c r="T12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="V12" s="4"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="4"/>
@@ -8264,6 +8591,7 @@
       <c r="AC12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="4"/>
@@ -8274,6 +8602,7 @@
       <c r="AL12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AM12" s="11"/>
       <c r="AN12" s="4"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="4"/>
@@ -8284,6 +8613,7 @@
       <c r="AU12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AV12" s="12"/>
       <c r="AW12" s="4"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="4"/>
@@ -8294,6 +8624,7 @@
       <c r="BD12" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="BE12" s="12"/>
       <c r="BF12" s="4"/>
       <c r="BH12" s="12"/>
       <c r="BI12" s="4"/>
@@ -8306,9 +8637,9 @@
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -8316,6 +8647,7 @@
       <c r="K13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="4"/>
       <c r="O13" s="11"/>
       <c r="P13" s="4"/>
@@ -8326,6 +8658,7 @@
       <c r="T13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="V13" s="4"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="4"/>
@@ -8336,6 +8669,7 @@
       <c r="AC13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="4"/>
@@ -8346,6 +8680,7 @@
       <c r="AL13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AM13" s="11"/>
       <c r="AN13" s="4"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="4"/>
@@ -8356,6 +8691,7 @@
       <c r="AU13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AV13" s="12"/>
       <c r="AW13" s="4"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="4"/>
@@ -8366,6 +8702,7 @@
       <c r="BD13" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="BE13" s="12"/>
       <c r="BF13" s="4"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="4"/>
@@ -8380,7 +8717,6 @@
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10" t="s">
         <v>22</v>
@@ -8428,6 +8764,7 @@
       <c r="AU14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AV14" s="12"/>
       <c r="AW14" s="4"/>
       <c r="AY14" s="12"/>
       <c r="AZ14" s="4"/>
@@ -8438,6 +8775,7 @@
       <c r="BD14" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="BE14" s="12"/>
       <c r="BF14" s="4"/>
       <c r="BH14" s="12"/>
       <c r="BI14" s="4"/>
@@ -8452,7 +8790,6 @@
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -8500,6 +8837,7 @@
       <c r="AU15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AV15" s="12"/>
       <c r="AW15" s="4"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="4"/>
@@ -8510,6 +8848,7 @@
       <c r="BD15" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="BE15" s="12"/>
       <c r="BF15" s="4"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="4"/>
@@ -8595,7 +8934,7 @@
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AX3:AZ3"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Daily Appointment Calendar in this worksheet. Enter appointment details in Appointments table starting in cell B2" sqref="A3" xr:uid="{020C3CF3-3449-4B9F-99EF-39A67433C720}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Date in cell E1" sqref="B3:C3 I3 K3:L3 R3 T3:U3 AA3 AC3:AD3 AJ3 AL3:AM3 AS3 AU3:AV3 BB3 BD3:BE3 BK3" xr:uid="{AC64EEAC-9E57-4100-9123-E658D31DEDD9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in cell at right" sqref="D3 M3 V3 AE3 AN3 AW3 BF3" xr:uid="{55E261F7-A81E-436D-B859-185D742FAA05}"/>
@@ -8769,88 +9108,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44963</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44964</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44965</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44966</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44967</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44968</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44969</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -9990,88 +10329,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44970</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44971</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44972</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44973</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44974</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44975</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44976</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -11073,8 +11412,8 @@
   </sheetPr>
   <dimension ref="B1:BK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="BF7" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11211,88 +11550,88 @@
     </row>
     <row r="2" spans="2:63" ht="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>44977</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="20">
         <v>44978</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="20">
         <v>44979</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
       <c r="AE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="20">
         <v>44980</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="20">
         <v>44981</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
       <c r="AW3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="20">
         <v>44982</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
       <c r="BF3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="15">
+      <c r="BG3" s="20">
         <v>44983</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
     </row>
@@ -11872,7 +12211,6 @@
       <c r="M11" s="4"/>
       <c r="O11" s="11"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="12"/>
       <c r="R11" s="10" t="s">
         <v>20</v>
       </c>
@@ -12288,6 +12626,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100577685AB90FCC4498475D6452D048D90" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6fe2089005366a98f0abf53e193a6fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="544010ab-5998-4e47-9e28-04d882867513" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b810a13fcf3b4b751b6351b05549f6f" ns3:_="">
     <xsd:import namespace="544010ab-5998-4e47-9e28-04d882867513"/>
@@ -12477,7 +12823,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12486,15 +12832,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="544010ab-5998-4e47-9e28-04d882867513" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB62CB31-3897-439C-929D-5AFDFE1F0635}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12512,26 +12866,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7A5433-9782-480E-ABBF-A825B9458B88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78FE3DBD-4BA3-46F9-ACF1-8875F3E925DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="544010ab-5998-4e47-9e28-04d882867513"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>